--- a/4.0test3_fp_django4.0AI/test222.xlsx
+++ b/4.0test3_fp_django4.0AI/test222.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0.9002624671916011</t>
+          <t>0.90,0.91</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -374,7 +374,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.9124423963133641</t>
+          <t>0.91,0.92</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -392,7 +392,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9377431906614787</t>
+          <t>0.93,0.9400000000000001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -410,7 +410,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.9523809523809523</t>
+          <t>0.95,0.96</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -428,25 +428,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9627791563275433</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>600006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9948453608247423</v>
+        <v>0.9870967741935482</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018/08/02</t>
+          <t>2018/04/16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9643652561247216</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -464,61 +464,61 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9647302904564315</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>600006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9870967741935482</v>
+        <v>1.007772020725389</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018/04/16</t>
+          <t>2018/06/21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.9664634146341464</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>600006</v>
       </c>
       <c r="C8" t="n">
-        <v>1.012618296529968</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2018/10/18</t>
+          <t>2018/08/02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.9674185463659147</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>600006</v>
       </c>
       <c r="C9" t="n">
-        <v>1.007772020725389</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018/06/21</t>
+          <t>2018/10/08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.9679300291545189</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -536,61 +536,61 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.9696969696969697</t>
+          <t>0.96,0.97</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>600006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.012618296529968</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018/10/08</t>
+          <t>2018/10/18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.9701086956521738</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>600006</v>
       </c>
       <c r="C12" t="n">
-        <v>1.008403361344538</v>
+        <v>1.015503875968992</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2018/12/27</t>
+          <t>2018/03/14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.9720101781170483</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>600006</v>
       </c>
       <c r="C13" t="n">
-        <v>1.013089005235602</v>
+        <v>0.9800443458980045</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2018/07/05</t>
+          <t>2018/05/25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.9728506787330317</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -608,79 +608,79 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.9755501222493889</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>600006</v>
       </c>
       <c r="C15" t="n">
-        <v>1.00250626566416</v>
+        <v>0.9931350114416475</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2018/07/02</t>
+          <t>2018/06/14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9761904761904762</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>600006</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9800443458980045</v>
+        <v>1.00250626566416</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2018/05/25</t>
+          <t>2018/07/02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.9762532981530343</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>600006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9972972972972972</v>
+        <v>1.013089005235602</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018/11/07</t>
+          <t>2018/07/05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9765013054830287</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>600006</v>
       </c>
       <c r="C18" t="n">
-        <v>1.005347593582887</v>
+        <v>0.9974160206718345</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2018/12/10</t>
+          <t>2018/07/16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.9770773638968481</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -698,25 +698,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9772727272727273</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>600006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.9972972972972972</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2018/07/16</t>
+          <t>2018/11/07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9773299748110831</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -734,25 +734,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9783783783783784</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>600006</v>
       </c>
       <c r="C22" t="n">
-        <v>1.016574585635359</v>
+        <v>1.005347593582887</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2018/12/25</t>
+          <t>2018/12/10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.9790575916230367</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -770,223 +770,223 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.9791271347248578</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>600006</v>
       </c>
       <c r="C24" t="n">
-        <v>1.015503875968992</v>
+        <v>1.016574585635359</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2018/03/14</t>
+          <t>2018/12/25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.9798206278026906</t>
+          <t>0.97,0.98</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>600006</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9931350114416475</v>
+        <v>1.008403361344538</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018/06/14</t>
+          <t>2018/12/27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.9800443458980045</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>600006</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.9377431906614787</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018/05/28</t>
+          <t>2018/03/22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.9800498753117208</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>600006</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>1.006198347107438</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018/11/20</t>
+          <t>2018/03/28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.9803921568627452</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>600006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9844444444444443</v>
+        <v>0.9938144329896909</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2018/04/20</t>
+          <t>2018/04/12</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.9817708333333334</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>600006</v>
       </c>
       <c r="C29" t="n">
-        <v>1.005305039787799</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2019/01/17</t>
+          <t>2018/04/17</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.981958762886598</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>600006</v>
       </c>
       <c r="C30" t="n">
-        <v>1.007874015748031</v>
+        <v>0.9844444444444443</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2018/09/17</t>
+          <t>2018/04/20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.9822784810126581</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>600006</v>
       </c>
       <c r="C31" t="n">
-        <v>1.015463917525773</v>
+        <v>1.015801354401806</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2018/07/11</t>
+          <t>2018/04/23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.9823677581863979</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>600006</v>
       </c>
       <c r="C32" t="n">
-        <v>1.002564102564103</v>
+        <v>1.004347826086957</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2018/07/19</t>
+          <t>2018/05/14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.9825</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>600006</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9720101781170483</v>
+        <v>0.9934065934065933</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2018/07/04</t>
+          <t>2018/05/16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.9836512261580381</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>600006</v>
       </c>
       <c r="C34" t="n">
-        <v>1.024930747922438</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018/12/21</t>
+          <t>2018/05/28</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.983739837398374</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>600006</v>
       </c>
       <c r="C35" t="n">
-        <v>1.052341597796143</v>
+        <v>0.9838337182448036</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2018/11/09</t>
+          <t>2018/06/07</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.9838337182448036</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1004,241 +1004,241 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.9842931937172775</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>600006</v>
       </c>
       <c r="C37" t="n">
-        <v>1.00531914893617</v>
+        <v>1.040712468193384</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019/01/10</t>
+          <t>2018/06/28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.9844444444444443</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>600006</v>
       </c>
       <c r="C38" t="n">
-        <v>1.015801354401806</v>
+        <v>0.9720101781170483</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2018/04/23</t>
+          <t>2018/07/04</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.9845360824742267</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>600006</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9790575916230367</v>
+        <v>1.015463917525773</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2018/12/14</t>
+          <t>2018/07/11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.9845758354755784</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>600006</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>1.002564102564103</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2018/11/29</t>
+          <t>2018/07/19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.9846153846153846</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>600006</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9947916666666666</v>
+        <v>0.9627791563275433</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2018/08/15</t>
+          <t>2018/08/01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.9848484848484848</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>600006</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9934065934065933</v>
+        <v>1.020997375328084</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2018/05/16</t>
+          <t>2018/08/06</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.9849397590361446</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>600006</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9938837920489296</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2018/10/15</t>
+          <t>2018/08/15</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.9858757062146893</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>600006</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9770773638968481</v>
+        <v>0.9973753280839894</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2018/10/26</t>
+          <t>2018/09/10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.9863325740318908</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>600006</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9838337182448036</v>
+        <v>1.007874015748031</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2018/06/07</t>
+          <t>2018/09/17</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.9865642994241842</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>600006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9377431906614787</v>
+        <v>1.012787723785166</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2018/03/22</t>
+          <t>2018/09/27</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.9870466321243524</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>600006</v>
       </c>
       <c r="C47" t="n">
-        <v>1.020997375328084</v>
+        <v>0.9938837920489296</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2018/08/06</t>
+          <t>2018/10/15</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.9870466321243524</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>600006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9973753280839894</v>
+        <v>0.9770773638968481</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2018/09/10</t>
+          <t>2018/10/26</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.9870967741935482</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>600006</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>1.052341597796143</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2018/04/17</t>
+          <t>2018/11/09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.9871134020618557</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1249,500 +1249,500 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2018/12/06</t>
+          <t>2018/11/20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.9871244635193132</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>600006</v>
       </c>
       <c r="C51" t="n">
-        <v>1.004347826086957</v>
+        <v>1</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2018/05/14</t>
+          <t>2018/11/29</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.9874371859296482</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>600006</v>
       </c>
       <c r="C52" t="n">
-        <v>1.040712468193384</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2018/06/28</t>
+          <t>2018/12/06</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0.9877450980392157</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>600006</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9627791563275433</v>
+        <v>0.9790575916230367</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2018/08/01</t>
+          <t>2018/12/14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.9877800407331975</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>600006</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9938144329896909</v>
+        <v>1.024930747922438</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2018/04/12</t>
+          <t>2018/12/21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.9894179894179895</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>600006</v>
       </c>
       <c r="C55" t="n">
-        <v>1.016042780748663</v>
+        <v>1.00531914893617</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2019/01/10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.9897750511247444</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>600006</v>
       </c>
       <c r="C56" t="n">
-        <v>1.006198347107438</v>
+        <v>1.016042780748663</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2018/03/28</t>
+          <t>2019/01/14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.9898734177215189</t>
+          <t>0.98,0.99</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>600006</v>
       </c>
       <c r="C57" t="n">
-        <v>1.012787723785166</v>
+        <v>1.005305039787799</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2018/09/27</t>
+          <t>2019/01/17</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.9910179640718564</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>600006</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>1.001988071570576</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2018/10/23</t>
+          <t>2018/02/13</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.9914163090128755</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>600006</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9761904761904762</v>
+        <v>1.011764705882353</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2018/05/24</t>
+          <t>2018/02/23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.9918367346938776</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>600006</v>
       </c>
       <c r="C60" t="n">
-        <v>1.006172839506173</v>
+        <v>1.001945525291829</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2018/04/03</t>
+          <t>2018/02/28</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.9919786096256684</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>600006</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9946091644204852</v>
+        <v>1.001941747572815</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2018/12/18</t>
+          <t>2018/03/05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.9922279792746115</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>600006</v>
       </c>
       <c r="C62" t="n">
-        <v>1.005221932114883</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2018/08/22</t>
+          <t>2018/03/07</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.9922480620155039</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>600006</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0.9924098671726757</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2018/03/07</t>
+          <t>2018/03/19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.9922680412371134</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>600006</v>
       </c>
       <c r="C64" t="n">
-        <v>1.002597402597402</v>
+        <v>0.9961759082217972</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2018/09/06</t>
+          <t>2018/03/20</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0.9922879177377891</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>600006</v>
       </c>
       <c r="C65" t="n">
-        <v>1.012953367875648</v>
+        <v>0.9865642994241842</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2018/08/08</t>
+          <t>2018/03/21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.9923076923076923</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>600006</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9948320413436692</v>
+        <v>1.006172839506173</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2018/08/31</t>
+          <t>2018/04/03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0.9923273657289002</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>600006</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9922680412371134</v>
+        <v>0.9877800407331975</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2018/09/05</t>
+          <t>2018/04/11</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.9924098671726757</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>600006</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9961759082217972</v>
+        <v>0.9647302904564315</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2018/03/20</t>
+          <t>2018/04/13</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.992462311557789</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>600006</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.9643652561247216</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2018/09/25</t>
+          <t>2018/04/25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.992467043314501</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>600006</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9924098671726757</v>
+        <v>1.013953488372093</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2018/03/19</t>
+          <t>2018/04/27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0.9927007299270072</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>600006</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>1.011061946902655</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2018/07/30</t>
+          <t>2018/05/17</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.9930715935334873</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>600006</v>
       </c>
       <c r="C72" t="n">
-        <v>1.013953488372093</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2018/04/27</t>
+          <t>2018/05/24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.9931350114416475</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>600006</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9124423963133641</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2018/06/15</t>
+          <t>2018/06/01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.9934065934065933</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>600006</v>
       </c>
       <c r="C74" t="n">
-        <v>1.011061946902655</v>
+        <v>0.9124423963133641</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2018/05/17</t>
+          <t>2018/06/15</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0.9938144329896909</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>600006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9647302904564315</v>
+        <v>1.020671834625323</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2018/04/13</t>
+          <t>2018/06/25</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0.9938837920489296</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>600006</v>
       </c>
       <c r="C76" t="n">
-        <v>1.009230769230769</v>
+        <v>1.028497409326425</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2018/10/16</t>
+          <t>2018/07/17</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.9942084942084943</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>600006</v>
       </c>
       <c r="C77" t="n">
-        <v>1.001941747572815</v>
+        <v>0.9927007299270072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2018/03/05</t>
+          <t>2018/07/27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.9943019943019944</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1753,68 +1753,68 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2018/10/31</t>
+          <t>2018/07/30</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.994579945799458</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>600006</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9836512261580381</v>
+        <v>0.9870466321243524</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2018/12/20</t>
+          <t>2018/08/03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0.9946091644204852</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>600006</v>
       </c>
       <c r="C80" t="n">
-        <v>0.994579945799458</v>
+        <v>1.012953367875648</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2018/12/19</t>
+          <t>2018/08/08</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.9947643979057592</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>600006</v>
       </c>
       <c r="C81" t="n">
-        <v>1.010526315789474</v>
+        <v>1.002570694087404</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2018/08/17</t>
+          <t>2018/08/13</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.9947916666666666</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1832,403 +1832,403 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.9947916666666666</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>600006</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9973821989528796</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2018/10/09</t>
+          <t>2018/08/17</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.9948320413436692</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>600006</v>
       </c>
       <c r="C84" t="n">
-        <v>1.015584415584416</v>
+        <v>1.005221932114883</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2018/09/03</t>
+          <t>2018/08/22</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.9948453608247423</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>600006</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9870466321243524</v>
+        <v>1.002577319587629</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2018/08/03</t>
+          <t>2018/08/28</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.9948586118251928</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>600006</v>
       </c>
       <c r="C86" t="n">
-        <v>1.020671834625323</v>
+        <v>0.9948320413436692</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2018/06/25</t>
+          <t>2018/08/31</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.9948849104859335</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>600006</v>
       </c>
       <c r="C87" t="n">
-        <v>1.002570694087404</v>
+        <v>1.015584415584416</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2018/08/13</t>
+          <t>2018/09/03</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.995381062355658</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>600006</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0.9922680412371134</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2018/06/01</t>
+          <t>2018/09/05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.9959432048681542</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>600006</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9877800407331975</v>
+        <v>1.002597402597402</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2018/04/11</t>
+          <t>2018/09/06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.9961240310077518</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>600006</v>
       </c>
       <c r="C90" t="n">
-        <v>1.001945525291829</v>
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2018/02/28</t>
+          <t>2018/09/11</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.9961759082217972</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>600006</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9865642994241842</v>
+        <v>1.031088082901555</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2018/03/21</t>
+          <t>2018/09/20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.9972222222222221</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>600006</v>
       </c>
       <c r="C92" t="n">
-        <v>1.011142061281337</v>
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2019/01/02</t>
+          <t>2018/09/25</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0.9972972972972972</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>600006</v>
       </c>
       <c r="C93" t="n">
-        <v>0.983739837398374</v>
+        <v>0.9973821989528796</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2018/11/08</t>
+          <t>2018/10/09</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.9973753280839894</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>600006</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0.9002624671916011</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2018/09/11</t>
+          <t>2018/10/10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0.9973821989528796</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>600006</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9002624671916011</v>
+        <v>1.009230769230769</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2018/10/10</t>
+          <t>2018/10/16</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.9974160206718345</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>600006</v>
       </c>
       <c r="C96" t="n">
-        <v>1.028497409326425</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2018/07/17</t>
+          <t>2018/10/23</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0.9974160206718345</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>600006</v>
       </c>
       <c r="C97" t="n">
-        <v>1.031088082901555</v>
+        <v>1</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2018/09/20</t>
+          <t>2018/10/31</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.9974293059125964</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>600006</v>
       </c>
       <c r="C98" t="n">
-        <v>1.002577319587629</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2018/08/28</t>
+          <t>2018/11/08</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.9974424552429667</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>600006</v>
       </c>
       <c r="C99" t="n">
-        <v>1.028205128205128</v>
+        <v>0.9974424552429667</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2018/11/16</t>
+          <t>2018/11/15</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.9974489795918368</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>600006</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9974424552429667</v>
+        <v>1.028205128205128</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2018/11/15</t>
+          <t>2018/11/16</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0.9975728155339806</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>600006</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9927007299270072</v>
+        <v>0.9946091644204852</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2018/07/27</t>
+          <t>2018/12/18</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0.9977777777777779</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>600006</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9643652561247216</v>
+        <v>0.994579945799458</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2018/04/25</t>
+          <t>2018/12/19</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0.998015873015873</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>600006</v>
       </c>
       <c r="C103" t="n">
-        <v>1.001988071570576</v>
+        <v>0.9836512261580381</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2018/02/13</t>
+          <t>2018/12/20</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0.9980430528375732</t>
+          <t>0.99,1.0</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>600006</v>
       </c>
       <c r="C104" t="n">
-        <v>1.011764705882353</v>
+        <v>1.011142061281337</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2018/02/23</t>
+          <t>2019/01/02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2246,7 +2246,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2264,7 +2264,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2282,7 +2282,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2300,7 +2300,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2318,7 +2318,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2336,7 +2336,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2354,7 +2354,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2372,7 +2372,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2390,7 +2390,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2408,7 +2408,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2426,7 +2426,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2444,7 +2444,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2462,7 +2462,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2480,7 +2480,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2498,7 +2498,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2516,7 +2516,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2534,7 +2534,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2552,7 +2552,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2570,7 +2570,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2588,7 +2588,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2606,7 +2606,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2624,7 +2624,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0,1.01</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2642,25 +2642,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1.0019417475728154</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>600006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9922480620155039</v>
+        <v>1.013888888888889</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2018/03/06</t>
+          <t>2018/02/14</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1.001945525291829</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2678,727 +2678,727 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.0019880715705765</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>600006</v>
       </c>
       <c r="C130" t="n">
-        <v>1.013888888888889</v>
+        <v>0.9942084942084943</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2018/03/02</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1.0020449897750512</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>600006</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9918367346938776</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2018/04/02</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1.0021978021978022</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>600006</v>
       </c>
       <c r="C132" t="n">
-        <v>1.021929824561404</v>
+        <v>1.00968992248062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2018/05/10</t>
+          <t>2018/03/09</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1.002202643171806</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>600006</v>
       </c>
       <c r="C133" t="n">
-        <v>1.002197802197802</v>
+        <v>1.011516314779271</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2018/05/09</t>
+          <t>2018/03/12</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1.0022471910112358</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>600006</v>
       </c>
       <c r="C134" t="n">
-        <v>1.017937219730942</v>
+        <v>1.010330578512397</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2018/05/04</t>
+          <t>2018/03/26</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1.0023474178403755</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>600006</v>
       </c>
       <c r="C135" t="n">
-        <v>1.044496487119438</v>
+        <v>1.004106776180698</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2018/06/12</t>
+          <t>2018/03/29</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1.0024330900243308</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>600006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9975728155339806</v>
+        <v>1.002044989775051</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2018/07/26</t>
+          <t>2018/03/30</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1.0025062656641603</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>600006</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9825</v>
+        <v>0.9918367346938776</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2018/07/03</t>
+          <t>2018/04/02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1.0025641025641026</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>600006</v>
       </c>
       <c r="C138" t="n">
-        <v>1.017902813299233</v>
+        <v>1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2018/07/20</t>
+          <t>2018/04/04</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1.0025706940874035</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>600006</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9846153846153846</v>
+        <v>0.9959432048681542</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2018/08/14</t>
+          <t>2018/04/10</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1.0025706940874035</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>600006</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9923076923076923</v>
+        <v>1.017937219730942</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2018/08/30</t>
+          <t>2018/05/04</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.0025773195876289</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>600006</v>
       </c>
       <c r="C141" t="n">
-        <v>1.002570694087404</v>
+        <v>1.002197802197802</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2018/08/29</t>
+          <t>2018/05/09</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.0025974025974025</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>600006</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9870466321243524</v>
+        <v>1.021929824561404</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2018/09/07</t>
+          <t>2018/05/10</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1.0026315789473685</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>600006</v>
       </c>
       <c r="C143" t="n">
-        <v>1.020997375328084</v>
+        <v>0.9848484848484848</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2018/11/26</t>
+          <t>2018/05/15</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1.004106776180698</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>600006</v>
       </c>
       <c r="C144" t="n">
-        <v>1.002044989775051</v>
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2018/03/30</t>
+          <t>2018/05/22</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1.004149377593361</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>600006</v>
       </c>
       <c r="C145" t="n">
-        <v>1.010330578512397</v>
+        <v>0.995381062355658</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2018/03/26</t>
+          <t>2018/05/31</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1.0043103448275863</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>600006</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>1.009195402298851</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2018/05/22</t>
+          <t>2018/06/05</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1.0043478260869567</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>600006</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9848484848484848</v>
+        <v>0.9863325740318908</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2018/05/15</t>
+          <t>2018/06/06</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.0048899755501224</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>600006</v>
       </c>
       <c r="C148" t="n">
-        <v>1.002433090024331</v>
+        <v>1.044496487119438</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2018/07/25</t>
+          <t>2018/06/12</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1.0050632911392405</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>600006</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9773299748110831</v>
+        <v>0.9674185463659147</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2018/12/04</t>
+          <t>2018/06/20</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1.0050761421319796</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>600006</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9948586118251928</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2018/07/13</t>
+          <t>2018/06/22</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1.0052083333333333</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>600006</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9922279792746115</v>
+        <v>0.9874371859296482</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2018/08/21</t>
+          <t>2018/06/27</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1.0052219321148825</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>600006</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0.9825</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2018/08/23</t>
+          <t>2018/07/03</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1.0053050397877985</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>600006</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9973614775725593</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2019/01/18</t>
+          <t>2018/07/13</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1.0053191489361701</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>600006</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9894179894179895</v>
+        <v>1.017902813299233</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2019/01/11</t>
+          <t>2018/07/20</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1.0053475935828875</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>600006</v>
       </c>
       <c r="C155" t="n">
-        <v>1.01063829787234</v>
+        <v>1.002433090024331</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2018/12/11</t>
+          <t>2018/07/25</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1.0058252427184464</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>600006</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9942084942084943</v>
+        <v>0.9975728155339806</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2018/03/02</t>
+          <t>2018/07/26</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1.0061728395061726</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>600006</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0.9846153846153846</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2018/04/04</t>
+          <t>2018/08/14</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1.006198347107438</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>600006</v>
       </c>
       <c r="C158" t="n">
-        <v>1.004106776180698</v>
+        <v>0.9922279792746115</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2018/03/29</t>
+          <t>2018/08/21</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.0069767441860467</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>600006</v>
       </c>
       <c r="C159" t="n">
-        <v>0.995381062355658</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2018/05/31</t>
+          <t>2018/08/23</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1.0075757575757576</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>600006</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9674185463659147</v>
+        <v>1.002570694087404</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2018/06/20</t>
+          <t>2018/08/29</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1.0075949367088608</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>600006</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9874371859296482</v>
+        <v>0.9923076923076923</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2018/06/27</t>
+          <t>2018/08/30</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1.0077720207253886</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>600006</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9948586118251928</v>
+        <v>0.9870466321243524</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2018/06/22</t>
+          <t>2018/09/07</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1.0078125</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>600006</v>
       </c>
       <c r="C163" t="n">
-        <v>1.00968992248062</v>
+        <v>1.013054830287206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2018/03/09</t>
+          <t>2018/09/13</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1.0078125</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>600006</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9974160206718345</v>
+        <v>1.0078125</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2018/09/19</t>
+          <t>2018/09/18</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1.0078740157480315</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>600006</v>
       </c>
       <c r="C165" t="n">
-        <v>1.0078125</v>
+        <v>0.9974160206718345</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2018/09/18</t>
+          <t>2018/09/19</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.0078947368421054</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>600006</v>
       </c>
       <c r="C166" t="n">
-        <v>1.013054830287206</v>
+        <v>0.9664634146341464</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2018/10/17</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1.007915567282322</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>600006</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9842931937172775</v>
+        <v>1.020997375328084</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2019/01/09</t>
+          <t>2018/11/26</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1.0081799591002045</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>600006</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9959432048681542</v>
+        <v>0.9773299748110831</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2018/04/10</t>
+          <t>2018/12/04</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1.0082644628099173</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>600006</v>
       </c>
       <c r="C169" t="n">
-        <v>1.021857923497268</v>
+        <v>1.01063829787234</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2019/01/04</t>
+          <t>2018/12/11</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1.0084033613445378</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3416,619 +3416,619 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1.0091954022988505</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>600006</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9863325740318908</v>
+        <v>1.021857923497268</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2018/06/06</t>
+          <t>2019/01/04</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.0092307692307692</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>600006</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9664634146341464</v>
+        <v>0.9842931937172775</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2018/10/17</t>
+          <t>2019/01/09</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1.0092807424593968</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>600006</v>
       </c>
       <c r="C173" t="n">
-        <v>1.009195402298851</v>
+        <v>0.9894179894179895</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2018/06/05</t>
+          <t>2019/01/11</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1.0096899224806202</t>
+          <t>1.00,1.01</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>600006</v>
       </c>
       <c r="C174" t="n">
-        <v>1.011516314779271</v>
+        <v>0.9973614775725593</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2018/03/12</t>
+          <t>2019/01/18</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1.0103092783505154</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>600006</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9974489795918368</v>
+        <v>0.9980430528375732</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2018/11/14</t>
+          <t>2018/02/22</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1.0103305785123966</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>600006</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9897750511247444</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2018/03/27</t>
+          <t>2018/02/26</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1.0103896103896104</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>600006</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9974293059125964</v>
+        <v>0.9791271347248578</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2018/08/27</t>
+          <t>2018/03/13</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1.0105263157894737</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>600006</v>
       </c>
       <c r="C178" t="n">
-        <v>1.005208333333333</v>
+        <v>1.013358778625954</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2018/08/20</t>
+          <t>2018/03/15</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1.0105263157894737</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>600006</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9817708333333334</v>
+        <v>0.992467043314501</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2019/01/16</t>
+          <t>2018/03/16</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1.0106382978723405</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>600006</v>
       </c>
       <c r="C180" t="n">
-        <v>1.021052631578947</v>
+        <v>0.9897750511247444</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2018/12/12</t>
+          <t>2018/03/27</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.011061946902655</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>600006</v>
       </c>
       <c r="C181" t="n">
-        <v>1.015317286652079</v>
+        <v>0.9977777777777779</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2018/05/18</t>
+          <t>2018/04/24</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1.011142061281337</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>600006</v>
       </c>
       <c r="C182" t="n">
-        <v>1.008264462809917</v>
+        <v>1.020642201834862</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2019/01/03</t>
+          <t>2018/05/02</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1.0115163147792705</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>600006</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9791271347248578</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2018/03/13</t>
+          <t>2018/05/07</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1.0117647058823531</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>600006</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>1.015317286652079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2018/02/26</t>
+          <t>2018/05/18</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1.0126182965299684</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>600006</v>
       </c>
       <c r="C185" t="n">
-        <v>1.040498442367601</v>
+        <v>1.004310344827586</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2018/10/19</t>
+          <t>2018/05/21</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1.0127877237851661</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>600006</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.020671834625323</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2018/09/28</t>
+          <t>2018/07/06</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1.0129533678756477</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>600006</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>1.00507614213198</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2018/08/09</t>
+          <t>2018/07/12</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1.0130548302872062</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>600006</v>
       </c>
       <c r="C188" t="n">
-        <v>0.981958762886598</v>
+        <v>1.027638190954774</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2018/09/14</t>
+          <t>2018/07/23</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.013089005235602</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>600006</v>
       </c>
       <c r="C189" t="n">
-        <v>1.020671834625323</v>
+        <v>1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2018/07/06</t>
+          <t>2018/08/09</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1.0133587786259541</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>600006</v>
       </c>
       <c r="C190" t="n">
-        <v>0.992467043314501</v>
+        <v>1.005208333333333</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2018/03/16</t>
+          <t>2018/08/20</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1.0133689839572193</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>600006</v>
       </c>
       <c r="C191" t="n">
-        <v>1.007915567282322</v>
+        <v>0.9974293059125964</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2019/01/08</t>
+          <t>2018/08/27</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1.0138888888888888</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>600006</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9980430528375732</v>
+        <v>0.9923273657289002</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2018/02/22</t>
+          <t>2018/09/04</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1.013953488372093</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>600006</v>
       </c>
       <c r="C193" t="n">
-        <v>1.020642201834862</v>
+        <v>0.981958762886598</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2018/05/02</t>
+          <t>2018/09/14</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.015267175572519</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>600006</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2018/11/22</t>
+          <t>2018/09/28</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.0153172866520785</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>600006</v>
       </c>
       <c r="C195" t="n">
-        <v>1.004310344827586</v>
+        <v>1.040498442367601</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2018/05/21</t>
+          <t>2018/10/19</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1.0154639175257731</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>600006</v>
       </c>
       <c r="C196" t="n">
-        <v>1.00507614213198</v>
+        <v>1.010309278350515</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2018/07/12</t>
+          <t>2018/11/13</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1.0155038759689923</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>600006</v>
       </c>
       <c r="C197" t="n">
-        <v>1.013358778625954</v>
+        <v>0.9974489795918368</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2018/03/15</t>
+          <t>2018/11/14</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1.0155844155844156</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>600006</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9923273657289002</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2018/09/04</t>
+          <t>2018/11/22</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1.0157068062827226</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>600006</v>
       </c>
       <c r="C199" t="n">
-        <v>1.010309278350515</v>
+        <v>1.021052631578947</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2018/11/13</t>
+          <t>2018/12/12</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1.0158013544018059</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>600006</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9977777777777779</v>
+        <v>0.9701086956521738</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2018/04/24</t>
+          <t>2018/12/26</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1.016042780748663</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>600006</v>
       </c>
       <c r="C201" t="n">
-        <v>1.010526315789474</v>
+        <v>1.008264462809917</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2019/01/15</t>
+          <t>2019/01/03</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1.0165745856353592</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>600006</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9701086956521738</v>
+        <v>1.007915567282322</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2018/12/26</t>
+          <t>2019/01/08</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1.0179028132992327</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>600006</v>
       </c>
       <c r="C203" t="n">
-        <v>1.027638190954774</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2018/07/23</t>
+          <t>2019/01/15</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1.0179372197309418</t>
+          <t>1.01,1.02</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>600006</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0.9817708333333334</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2018/05/07</t>
+          <t>2019/01/16</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1.0206422018348624</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -4046,133 +4046,133 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1.020671834625323</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>600006</v>
       </c>
       <c r="C206" t="n">
-        <v>1.007594936708861</v>
+        <v>0.9871244635193132</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2018/06/26</t>
+          <t>2018/05/11</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1.020671834625323</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>600006</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>1.007594936708861</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2018/07/09</t>
+          <t>2018/06/26</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1.020997375328084</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>600006</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9922879177377891</v>
+        <v>1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2018/08/07</t>
+          <t>2018/07/09</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1.020997375328084</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>600006</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0.9823677581863979</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2018/11/27</t>
+          <t>2018/07/18</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1.0210526315789474</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>600006</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9845360824742267</v>
+        <v>1.004889975550122</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2018/12/13</t>
+          <t>2018/07/24</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1.0218579234972678</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>600006</v>
       </c>
       <c r="C211" t="n">
-        <v>1.013368983957219</v>
+        <v>0.9922879177377891</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2019/01/07</t>
+          <t>2018/08/07</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1.0219298245614037</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>600006</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9871244635193132</v>
+        <v>0.9943019943019944</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2018/05/11</t>
+          <t>2018/10/30</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1.0229226361031518</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4190,169 +4190,169 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1.0249307479224377</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>600006</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.9800498753117208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2018/12/24</t>
+          <t>2018/11/19</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1.0276381909547738</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>600006</v>
       </c>
       <c r="C215" t="n">
-        <v>1.004889975550122</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2018/07/24</t>
+          <t>2018/11/27</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1.028205128205128</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>600006</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9800498753117208</v>
+        <v>0.9845360824742267</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2018/11/19</t>
+          <t>2018/12/13</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1.028497409326425</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>600006</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9823677581863979</v>
+        <v>0.9783783783783784</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2018/07/18</t>
+          <t>2018/12/24</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1.029325513196481</t>
+          <t>1.02,1.03</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>600006</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9943019943019944</v>
+        <v>1.013368983957219</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2018/10/30</t>
+          <t>2019/01/07</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1.0310880829015545</t>
+          <t>1.03,1.04</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>600006</v>
       </c>
       <c r="C219" t="n">
-        <v>0.992462311557789</v>
+        <v>0.998015873015873</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2018/09/21</t>
+          <t>2018/02/12</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1.031331592689295</t>
+          <t>1.03,1.04</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>600006</v>
       </c>
       <c r="C220" t="n">
-        <v>1.005063291139241</v>
+        <v>0.992462311557789</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2018/12/03</t>
+          <t>2018/09/21</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1.0327868852459017</t>
+          <t>1.03,1.04</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>600006</v>
       </c>
       <c r="C221" t="n">
-        <v>0.998015873015873</v>
+        <v>1.005063291139241</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2018/02/12</t>
+          <t>2018/12/03</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1.0404984423676011</t>
+          <t>1.04,1.05</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>600006</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9910179640718564</v>
+        <v>0.9798206278026906</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2018/10/22</t>
+          <t>2018/06/13</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.0407124681933841</t>
+          <t>1.04,1.05</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4370,25 +4370,25 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1.044496487119438</t>
+          <t>1.04,1.05</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>600006</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9798206278026906</v>
+        <v>0.9910179640718564</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2018/06/13</t>
+          <t>2018/10/22</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1.0523415977961432</t>
+          <t>1.05,1.06</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4406,36 +4406,36 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1.061624649859944</t>
+          <t>1.06,1.07</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>600006</v>
       </c>
       <c r="C226" t="n">
-        <v>0.9762532981530343</v>
+        <v>0.9858757062146893</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2018/11/06</t>
+          <t>2018/10/25</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1.0694864048338368</t>
+          <t>1.06,1.07</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>600006</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9858757062146893</v>
+        <v>0.9762532981530343</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2018/10/25</t>
+          <t>2018/11/06</t>
         </is>
       </c>
     </row>

--- a/4.0test3_fp_django4.0AI/test222.xlsx
+++ b/4.0test3_fp_django4.0AI/test222.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0.90,0.91</t>
+          <t>0.90,0.91|0.99,1.00|0.994,0.995|</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -374,7 +374,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.91,0.92</t>
+          <t>0.91,0.92|0.99,1.00|0.979,0.980|</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -392,7 +392,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.93,0.9400000000000001</t>
+          <t>0.93,0.94|0.98,0.99|0.996,0.997|</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -410,7 +410,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.95,0.96</t>
+          <t>0.95,0.96|1.01,1.02|1.0,1.001|</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -428,241 +428,241 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|0.90,0.91|0.997,0.998|</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>600006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9870967741935482</v>
+        <v>0.9849397590361446</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018/04/16</t>
+          <t>2018/10/12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>600006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9930715935334873</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018/04/26</t>
+          <t>2018/08/02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|0.99,1.00|0.987,0.988|</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>600006</v>
       </c>
       <c r="C7" t="n">
-        <v>1.007772020725389</v>
+        <v>0.9870967741935482</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2018/06/21</t>
+          <t>2018/04/16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|0.99,1.00|1.015,1.016|</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>600006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9948453608247423</v>
+        <v>0.9930715935334873</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2018/08/02</t>
+          <t>2018/04/26</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|1.00,1.01|0.912,0.913|</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>600006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.007772020725389</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2018/10/08</t>
+          <t>2018/06/21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|1.00,1.01|0.993,0.994|</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>600006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9849397590361446</v>
+        <v>1.012618296529968</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2018/10/12</t>
+          <t>2018/10/18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.96,0.97</t>
+          <t>0.96,0.97|1.01,1.02|0.989,0.990|</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>600006</v>
       </c>
       <c r="C11" t="n">
-        <v>1.012618296529968</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2018/10/18</t>
+          <t>2018/10/08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|0.98,0.99|1.002,1.003|</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>600006</v>
       </c>
       <c r="C12" t="n">
-        <v>1.015503875968992</v>
+        <v>1.013089005235602</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2018/03/14</t>
+          <t>2018/07/05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|0.98,0.99|1.021,1.022|</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>600006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9800443458980045</v>
+        <v>0.9919786096256684</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2018/05/25</t>
+          <t>2018/12/17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|0.98,0.99|1.069,1.070|</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>600006</v>
       </c>
       <c r="C14" t="n">
-        <v>1.006976744186047</v>
+        <v>1.029325513196481</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2018/05/30</t>
+          <t>2018/10/29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|0.99,1.00|1.0,1.001|</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>600006</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9931350114416475</v>
+        <v>0.9800443458980045</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2018/06/14</t>
+          <t>2018/05/25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.0,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>600006</v>
       </c>
       <c r="C16" t="n">
-        <v>1.00250626566416</v>
+        <v>1.006976744186047</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2018/07/02</t>
+          <t>2018/05/30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.0,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>600006</v>
       </c>
       <c r="C17" t="n">
-        <v>1.013089005235602</v>
+        <v>1.005347593582887</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018/07/05</t>
+          <t>2018/12/10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.00,1.01|1.015,1.016|</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -680,187 +680,187 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.00,1.01|1.031,1.032|</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>600006</v>
       </c>
       <c r="C19" t="n">
-        <v>1.029325513196481</v>
+        <v>0.9871134020618557</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2018/10/29</t>
+          <t>2018/12/05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.01,1.02|0.978,0.979|</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>600006</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9972972972972972</v>
+        <v>1.008403361344538</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2018/11/07</t>
+          <t>2018/12/27</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.01,1.02|1.009,1.010|</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>600006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9871134020618557</v>
+        <v>1.015503875968992</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2018/12/05</t>
+          <t>2018/03/14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.02,1.03|0.983,0.984|</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>600006</v>
       </c>
       <c r="C22" t="n">
-        <v>1.005347593582887</v>
+        <v>1.016574585635359</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2018/12/10</t>
+          <t>2018/12/25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.04,1.05|0.987,0.988|</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>600006</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9919786096256684</v>
+        <v>1.00250626566416</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2018/12/17</t>
+          <t>2018/07/02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.04,1.05|1.002,1.003|</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>600006</v>
       </c>
       <c r="C24" t="n">
-        <v>1.016574585635359</v>
+        <v>0.9931350114416475</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2018/12/25</t>
+          <t>2018/06/14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.97,0.98</t>
+          <t>0.97,0.98|1.06,1.07|1.0,1.001|</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>600006</v>
       </c>
       <c r="C25" t="n">
-        <v>1.008403361344538</v>
+        <v>0.9972972972972972</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018/12/27</t>
+          <t>2018/11/07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.96,0.97|0.900,0.901|</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>600006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9377431906614787</v>
+        <v>0.9938837920489296</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018/03/22</t>
+          <t>2018/10/15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.96,0.97|0.993,0.994|</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>600006</v>
       </c>
       <c r="C27" t="n">
-        <v>1.006198347107438</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018/03/28</t>
+          <t>2018/04/17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.97,0.98|0.991,0.992|</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>600006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9938144329896909</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2018/04/12</t>
+          <t>2018/05/28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.97,0.98|1.005,1.006|</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -871,1256 +871,1256 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2018/04/17</t>
+          <t>2018/12/06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>600006</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9844444444444443</v>
+        <v>1.015801354401806</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2018/04/20</t>
+          <t>2018/04/23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.98,0.99|1.009,1.010|</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>600006</v>
       </c>
       <c r="C31" t="n">
-        <v>1.015801354401806</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2018/04/23</t>
+          <t>2018/06/08</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.99,1.00|0.962,0.963|</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>600006</v>
       </c>
       <c r="C32" t="n">
-        <v>1.004347826086957</v>
+        <v>1.020997375328084</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2018/05/14</t>
+          <t>2018/08/06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.99,1.00|0.976,0.977|</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>600006</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9934065934065933</v>
+        <v>1.052341597796143</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2018/05/16</t>
+          <t>2018/11/09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>600006</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0.9377431906614787</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018/05/28</t>
+          <t>2018/03/22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.99,1.00|0.994,0.995|</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>600006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9838337182448036</v>
+        <v>1.024930747922438</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2018/06/07</t>
+          <t>2018/12/21</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>600006</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.9938144329896909</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2018/06/08</t>
+          <t>2018/04/12</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>600006</v>
       </c>
       <c r="C37" t="n">
-        <v>1.040712468193384</v>
+        <v>0.9627791563275433</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2018/06/28</t>
+          <t>2018/08/01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>600006</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9720101781170483</v>
+        <v>1.012787723785166</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2018/07/04</t>
+          <t>2018/09/27</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.0,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>600006</v>
       </c>
       <c r="C39" t="n">
-        <v>1.015463917525773</v>
+        <v>0.9844444444444443</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2018/07/11</t>
+          <t>2018/04/20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>600006</v>
       </c>
       <c r="C40" t="n">
-        <v>1.002564102564103</v>
+        <v>1.015463917525773</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2018/07/19</t>
+          <t>2018/07/11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>600006</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9627791563275433</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2018/08/01</t>
+          <t>2018/11/29</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>600006</v>
       </c>
       <c r="C42" t="n">
-        <v>1.020997375328084</v>
+        <v>0.9720101781170483</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2018/08/06</t>
+          <t>2018/07/04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>600006</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.016042780748663</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2018/08/15</t>
+          <t>2019/01/14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>600006</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9973753280839894</v>
+        <v>0.9934065934065933</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2018/09/10</t>
+          <t>2018/05/16</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>600006</v>
       </c>
       <c r="C45" t="n">
-        <v>1.007874015748031</v>
+        <v>0.9973753280839894</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2018/09/17</t>
+          <t>2018/09/10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>600006</v>
       </c>
       <c r="C46" t="n">
-        <v>1.012787723785166</v>
+        <v>0.9947916666666666</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2018/09/27</t>
+          <t>2018/08/15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>600006</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9938837920489296</v>
+        <v>0.9838337182448036</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2018/10/15</t>
+          <t>2018/06/07</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>600006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9770773638968481</v>
+        <v>1.00531914893617</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2018/10/26</t>
+          <t>2019/01/10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>600006</v>
       </c>
       <c r="C49" t="n">
-        <v>1.052341597796143</v>
+        <v>1.040712468193384</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2018/11/09</t>
+          <t>2018/06/28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.01,1.02|1.004,1.005|</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>600006</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>1.006198347107438</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2018/11/20</t>
+          <t>2018/03/28</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.01,1.02|1.007,1.008|</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>600006</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>1.007874015748031</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2018/11/29</t>
+          <t>2018/09/17</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.01,1.02|1.016,1.017|</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>600006</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>1.005305039787799</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2018/12/06</t>
+          <t>2019/01/17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>600006</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9790575916230367</v>
+        <v>1.002564102564103</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2018/12/14</t>
+          <t>2018/07/19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.02,1.03|0.997,0.998|</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>600006</v>
       </c>
       <c r="C54" t="n">
-        <v>1.024930747922438</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2018/12/21</t>
+          <t>2018/11/20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.02,1.03|1.002,1.003|</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>600006</v>
       </c>
       <c r="C55" t="n">
-        <v>1.00531914893617</v>
+        <v>1.004347826086957</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2019/01/10</t>
+          <t>2018/05/14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.02,1.03|1.010,1.011|</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>600006</v>
       </c>
       <c r="C56" t="n">
-        <v>1.016042780748663</v>
+        <v>0.9790575916230367</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2018/12/14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0.98,0.99</t>
+          <t>0.98,0.99|1.06,1.07|1.0,1.001|</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>600006</v>
       </c>
       <c r="C57" t="n">
-        <v>1.005305039787799</v>
+        <v>0.9770773638968481</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2019/01/17</t>
+          <t>2018/10/26</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.96,0.97|0.987,0.988|</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>600006</v>
       </c>
       <c r="C58" t="n">
-        <v>1.001988071570576</v>
+        <v>0.9870466321243524</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2018/02/13</t>
+          <t>2018/08/03</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.96,0.97|0.997,0.998|</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>600006</v>
       </c>
       <c r="C59" t="n">
-        <v>1.011764705882353</v>
+        <v>1.013953488372093</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2018/02/23</t>
+          <t>2018/04/27</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.96,0.97|1.012,1.013|</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>600006</v>
       </c>
       <c r="C60" t="n">
-        <v>1.001945525291829</v>
+        <v>0.9973821989528796</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2018/02/28</t>
+          <t>2018/10/09</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.97,0.98|0.984,0.985|</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>600006</v>
       </c>
       <c r="C61" t="n">
-        <v>1.001941747572815</v>
+        <v>0.9946091644204852</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2018/03/05</t>
+          <t>2018/12/18</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.97,0.98|1.005,1.006|</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>600006</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>1.028497409326425</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2018/03/07</t>
+          <t>2018/07/17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.97,0.98|1.044,1.045|</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>600006</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9924098671726757</v>
+        <v>0.9124423963133641</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2018/03/19</t>
+          <t>2018/06/15</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.97,0.98|1.061,1.062|</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>600006</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9961759082217972</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2018/03/20</t>
+          <t>2018/11/08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.98,0.99|0.967,0.968|</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>600006</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9865642994241842</v>
+        <v>1.009230769230769</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2018/03/21</t>
+          <t>2018/10/16</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.98,0.99|0.995,0.996|</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>600006</v>
       </c>
       <c r="C66" t="n">
-        <v>1.006172839506173</v>
+        <v>0.9647302904564315</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2018/04/03</t>
+          <t>2018/04/13</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>600006</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9877800407331975</v>
+        <v>0.9947643979057592</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2018/04/11</t>
+          <t>2018/08/16</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.98,0.99|1.002,1.003|</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>600006</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9647302904564315</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2018/04/13</t>
+          <t>2018/09/11</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.98,0.99|1.004,1.005|</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>600006</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9643652561247216</v>
+        <v>1.011061946902655</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2018/04/25</t>
+          <t>2018/05/17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|0.969,0.970|</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>600006</v>
       </c>
       <c r="C70" t="n">
-        <v>1.013953488372093</v>
+        <v>0.9002624671916011</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2018/04/27</t>
+          <t>2018/10/10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|0.979,0.980|</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>600006</v>
       </c>
       <c r="C71" t="n">
-        <v>1.011061946902655</v>
+        <v>0.994579945799458</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2018/05/17</t>
+          <t>2018/12/19</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|0.984,0.985|</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>600006</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9761904761904762</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2018/05/24</t>
+          <t>2018/08/17</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|0.991,0.992|</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>600006</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0.9836512261580381</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2018/06/01</t>
+          <t>2018/12/20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>600006</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9124423963133641</v>
+        <v>0.9865642994241842</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2018/06/15</t>
+          <t>2018/03/21</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>600006</v>
       </c>
       <c r="C75" t="n">
-        <v>1.020671834625323</v>
+        <v>1</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2018/06/25</t>
+          <t>2018/07/30</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>600006</v>
       </c>
       <c r="C76" t="n">
-        <v>1.028497409326425</v>
+        <v>1.015584415584416</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2018/07/17</t>
+          <t>2018/09/03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|1.010,1.011|</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>600006</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9927007299270072</v>
+        <v>1.028205128205128</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2018/07/27</t>
+          <t>2018/11/16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|1.013,1.014|</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>600006</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0.9961759082217972</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2018/07/30</t>
+          <t>2018/03/20</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|0.99,1.00|1.015,1.016|</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>600006</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9870466321243524</v>
+        <v>1.002597402597402</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2018/08/03</t>
+          <t>2018/09/06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.0,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>600006</v>
       </c>
       <c r="C80" t="n">
-        <v>1.012953367875648</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2018/08/08</t>
+          <t>2018/05/24</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.0,1.01|1.011,1.012|</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>600006</v>
       </c>
       <c r="C81" t="n">
-        <v>1.002570694087404</v>
+        <v>1.001945525291829</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2018/08/13</t>
+          <t>2018/02/28</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.0,1.01|1.012,1.013|</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>600006</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9947643979057592</v>
+        <v>1.002570694087404</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2018/08/16</t>
+          <t>2018/08/13</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>600006</v>
       </c>
       <c r="C83" t="n">
-        <v>1.010526315789474</v>
+        <v>1.020671834625323</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2018/08/17</t>
+          <t>2018/06/25</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>600006</v>
       </c>
       <c r="C84" t="n">
-        <v>1.005221932114883</v>
+        <v>1.011142061281337</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2018/08/22</t>
+          <t>2019/01/02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>600006</v>
       </c>
       <c r="C85" t="n">
-        <v>1.002577319587629</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2018/08/28</t>
+          <t>2018/06/01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>600006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9948320413436692</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2018/08/31</t>
+          <t>2018/03/07</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>600006</v>
       </c>
       <c r="C87" t="n">
-        <v>1.015584415584416</v>
+        <v>0.9877800407331975</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2018/09/03</t>
+          <t>2018/04/11</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>600006</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9922680412371134</v>
+        <v>1.001941747572815</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2018/09/05</t>
+          <t>2018/03/05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>600006</v>
       </c>
       <c r="C89" t="n">
-        <v>1.002597402597402</v>
+        <v>0.9948320413436692</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2018/09/06</t>
+          <t>2018/08/31</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>600006</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>1.006172839506173</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2018/09/11</t>
+          <t>2018/04/03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>600006</v>
       </c>
       <c r="C91" t="n">
-        <v>1.031088082901555</v>
+        <v>0.9927007299270072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2018/09/20</t>
+          <t>2018/07/27</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>600006</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>1.031088082901555</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2018/09/25</t>
+          <t>2018/09/20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>600006</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9973821989528796</v>
+        <v>1.005221932114883</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2018/10/09</t>
+          <t>2018/08/22</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|0.984,0.985|</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>600006</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9002624671916011</v>
+        <v>0.9643652561247216</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2018/10/10</t>
+          <t>2018/04/25</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>600006</v>
       </c>
       <c r="C95" t="n">
-        <v>1.009230769230769</v>
+        <v>0.9922680412371134</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2018/10/16</t>
+          <t>2018/09/05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|1.0,1.001|</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>600006</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>1.002577319587629</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2018/10/23</t>
+          <t>2018/08/28</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|1.001,1.002|</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>600006</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>1.011764705882353</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2018/10/31</t>
+          <t>2018/02/23</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>600006</v>
       </c>
       <c r="C98" t="n">
-        <v>0.983739837398374</v>
+        <v>0.9924098671726757</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2018/11/08</t>
+          <t>2018/03/19</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.01,1.02|1.015,1.016|</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2138,1519 +2138,1519 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.02,1.03|0.977,0.978|</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>600006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.028205128205128</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2018/11/16</t>
+          <t>2018/10/31</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.02,1.03|0.987,0.988|</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>600006</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9946091644204852</v>
+        <v>1.012953367875648</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2018/12/18</t>
+          <t>2018/08/08</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.03,1.04|0.966,0.967|</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>600006</v>
       </c>
       <c r="C102" t="n">
-        <v>0.994579945799458</v>
+        <v>1.001988071570576</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2018/12/19</t>
+          <t>2018/02/13</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.03,1.04|0.997,0.998|</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>600006</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9836512261580381</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2018/12/20</t>
+          <t>2018/09/25</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0.99,1.0</t>
+          <t>0.99,1.00|1.04,1.05|1.012,1.013|</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>600006</v>
       </c>
       <c r="C104" t="n">
-        <v>1.011142061281337</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2019/01/02</t>
+          <t>2018/10/23</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|0.964,0.965|</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>600006</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9961240310077518</v>
+        <v>1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2018/02/27</t>
+          <t>2018/04/18</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|0.976,0.977|</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>600006</v>
       </c>
       <c r="C106" t="n">
-        <v>1.0078125</v>
+        <v>0.9728506787330317</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2018/03/08</t>
+          <t>2018/05/29</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|0.977,0.978|</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>600006</v>
       </c>
       <c r="C107" t="n">
-        <v>1.008179959100205</v>
+        <v>0.9765013054830287</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2018/04/09</t>
+          <t>2018/12/07</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|0.986,0.987|</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>600006</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>1.002347417840376</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2018/04/18</t>
+          <t>2018/06/11</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>600006</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9803921568627452</v>
+        <v>1.031331592689295</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2018/04/19</t>
+          <t>2018/11/30</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.98,0.99|1.028,1.029|</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>600006</v>
       </c>
       <c r="C110" t="n">
-        <v>1.002202643171806</v>
+        <v>1.015267175572519</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2018/05/08</t>
+          <t>2018/11/21</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|0.987,0.988|</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>600006</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9914163090128755</v>
+        <v>1.007894736842105</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2018/05/23</t>
+          <t>2018/09/12</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|0.997,0.998|</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>600006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9728506787330317</v>
+        <v>0.9877450980392157</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2018/05/29</t>
+          <t>2018/07/31</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|1.001,1.002|</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>600006</v>
       </c>
       <c r="C113" t="n">
-        <v>1.009280742459397</v>
+        <v>1.0078125</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2018/06/04</t>
+          <t>2018/03/08</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>600006</v>
       </c>
       <c r="C114" t="n">
-        <v>1.002347417840376</v>
+        <v>1.009280742459397</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2018/06/11</t>
+          <t>2018/06/04</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|1.029,1.030|</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>600006</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9822784810126581</v>
+        <v>1.022922636103152</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2018/07/10</t>
+          <t>2018/11/01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|1.031,1.032|</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>600006</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9877450980392157</v>
+        <v>0.9898734177215189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2018/07/31</t>
+          <t>2018/09/26</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|0.99,1.00|1.040,1.041|</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>600006</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9948849104859335</v>
+        <v>1.069486404833837</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2018/08/10</t>
+          <t>2018/10/24</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.0,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>600006</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01038961038961</v>
+        <v>0.9803921568627452</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2018/08/24</t>
+          <t>2018/04/19</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>600006</v>
       </c>
       <c r="C119" t="n">
-        <v>1.007894736842105</v>
+        <v>1.008179959100205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2018/09/12</t>
+          <t>2018/04/09</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>600006</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9898734177215189</v>
+        <v>1.01038961038961</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2018/09/26</t>
+          <t>2018/08/24</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.00,1.01|1.015,1.016|</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>600006</v>
       </c>
       <c r="C121" t="n">
-        <v>1.069486404833837</v>
+        <v>0.9914163090128755</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2018/10/24</t>
+          <t>2018/05/23</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.01,1.02|0.992,0.993|</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>600006</v>
       </c>
       <c r="C122" t="n">
-        <v>1.022922636103152</v>
+        <v>0.9948849104859335</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2018/11/01</t>
+          <t>2018/08/10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.01,1.02|0.998,0.999|</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>600006</v>
       </c>
       <c r="C123" t="n">
-        <v>1.061624649859944</v>
+        <v>0.9961240310077518</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2018/11/05</t>
+          <t>2018/02/27</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.01,1.02|1.002,1.003|</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>600006</v>
       </c>
       <c r="C124" t="n">
-        <v>1.015267175572519</v>
+        <v>1.002202643171806</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2018/11/21</t>
+          <t>2018/05/08</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.02,1.03|1.0,1.001|</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>600006</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9845758354755784</v>
+        <v>1.061624649859944</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2018/11/28</t>
+          <t>2018/11/05</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.02,1.03|1.002,1.003|</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>600006</v>
       </c>
       <c r="C126" t="n">
-        <v>1.031331592689295</v>
+        <v>0.9845758354755784</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2018/11/30</t>
+          <t>2018/11/28</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1.0,1.01</t>
+          <t>1.0,1.01|1.02,1.03|1.013,1.014|</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>600006</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9765013054830287</v>
+        <v>0.9822784810126581</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2018/12/07</t>
+          <t>2018/07/10</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>600006</v>
       </c>
       <c r="C128" t="n">
-        <v>1.013888888888889</v>
+        <v>0.9674185463659147</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2018/06/20</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>600006</v>
       </c>
       <c r="C129" t="n">
-        <v>1.005825242718446</v>
+        <v>1.010330578512397</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2018/03/01</t>
+          <t>2018/03/26</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>600006</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9942084942084943</v>
+        <v>1.020997375328084</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2018/03/02</t>
+          <t>2018/11/26</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>600006</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9922480620155039</v>
+        <v>0.9948586118251928</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2018/03/06</t>
+          <t>2018/06/22</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>600006</v>
       </c>
       <c r="C132" t="n">
-        <v>1.00968992248062</v>
+        <v>0.995381062355658</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2018/03/09</t>
+          <t>2018/05/31</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>600006</v>
       </c>
       <c r="C133" t="n">
-        <v>1.011516314779271</v>
+        <v>1.01063829787234</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2018/03/12</t>
+          <t>2018/12/11</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>600006</v>
       </c>
       <c r="C134" t="n">
-        <v>1.010330578512397</v>
+        <v>0.9972222222222221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2018/03/26</t>
+          <t>2018/12/28</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>600006</v>
       </c>
       <c r="C135" t="n">
-        <v>1.004106776180698</v>
+        <v>0.9825</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2018/03/29</t>
+          <t>2018/07/03</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>600006</v>
       </c>
       <c r="C136" t="n">
-        <v>1.002044989775051</v>
+        <v>0.9894179894179895</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2018/03/30</t>
+          <t>2019/01/11</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>600006</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9918367346938776</v>
+        <v>1.004106776180698</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2018/04/02</t>
+          <t>2018/03/29</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>600006</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0.9973614775725593</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2018/04/04</t>
+          <t>2019/01/18</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>600006</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9959432048681542</v>
+        <v>1.0078125</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2018/04/10</t>
+          <t>2018/09/18</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>600006</v>
       </c>
       <c r="C140" t="n">
-        <v>1.017937219730942</v>
+        <v>0.9848484848484848</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2018/05/04</t>
+          <t>2018/05/15</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>600006</v>
       </c>
       <c r="C141" t="n">
-        <v>1.002197802197802</v>
+        <v>1.017902813299233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2018/05/09</t>
+          <t>2018/07/20</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>600006</v>
       </c>
       <c r="C142" t="n">
-        <v>1.021929824561404</v>
+        <v>0.9664634146341464</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2018/05/10</t>
+          <t>2018/10/17</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>600006</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9848484848484848</v>
+        <v>0.9870466321243524</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2018/05/15</t>
+          <t>2018/09/07</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>600006</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>1.005825242718446</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2018/05/22</t>
+          <t>2018/03/01</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>600006</v>
       </c>
       <c r="C145" t="n">
-        <v>0.995381062355658</v>
+        <v>0.9846153846153846</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2018/05/31</t>
+          <t>2018/08/14</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>600006</v>
       </c>
       <c r="C146" t="n">
-        <v>1.009195402298851</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2018/06/05</t>
+          <t>2018/04/04</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>600006</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9863325740318908</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2018/06/06</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>600006</v>
       </c>
       <c r="C148" t="n">
-        <v>1.044496487119438</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2018/06/12</t>
+          <t>2018/08/23</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>600006</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9674185463659147</v>
+        <v>1.002570694087404</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2018/06/20</t>
+          <t>2018/08/29</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>600006</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9948586118251928</v>
+        <v>1.013888888888889</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2018/06/22</t>
+          <t>2018/02/14</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|0.983,0.984|</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>600006</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9874371859296482</v>
+        <v>1.044496487119438</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2018/06/27</t>
+          <t>2018/06/12</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>600006</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9825</v>
+        <v>1.00968992248062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2018/07/03</t>
+          <t>2018/03/09</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>600006</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9772727272727273</v>
+        <v>1.009195402298851</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2018/07/13</t>
+          <t>2018/06/05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>600006</v>
       </c>
       <c r="C154" t="n">
-        <v>1.017902813299233</v>
+        <v>1.013054830287206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2018/07/20</t>
+          <t>2018/09/13</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|1.006,1.007|</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>600006</v>
       </c>
       <c r="C155" t="n">
-        <v>1.002433090024331</v>
+        <v>0.9959432048681542</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2018/07/25</t>
+          <t>2018/04/10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.0,1.01|1.017,1.018|</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>600006</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9975728155339806</v>
+        <v>1.002197802197802</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2018/07/26</t>
+          <t>2018/05/09</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>600006</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9846153846153846</v>
+        <v>0.9974160206718345</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2018/08/14</t>
+          <t>2018/09/19</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>600006</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9922279792746115</v>
+        <v>1.002044989775051</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2018/08/21</t>
+          <t>2018/03/30</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>600006</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0.9942084942084943</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2018/08/23</t>
+          <t>2018/03/02</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>600006</v>
       </c>
       <c r="C160" t="n">
-        <v>1.002570694087404</v>
+        <v>0.9923076923076923</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2018/08/29</t>
+          <t>2018/08/30</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>600006</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9923076923076923</v>
+        <v>1.011516314779271</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2018/08/30</t>
+          <t>2018/03/12</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>600006</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9870466321243524</v>
+        <v>1.021929824561404</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2018/09/07</t>
+          <t>2018/05/10</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>600006</v>
       </c>
       <c r="C163" t="n">
-        <v>1.013054830287206</v>
+        <v>0.9863325740318908</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2018/06/06</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>600006</v>
       </c>
       <c r="C164" t="n">
-        <v>1.0078125</v>
+        <v>0.9918367346938776</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2018/09/18</t>
+          <t>2018/04/02</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>600006</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.9975728155339806</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2018/09/19</t>
+          <t>2018/07/26</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>600006</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9664634146341464</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2018/10/17</t>
+          <t>2018/07/13</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>600006</v>
       </c>
       <c r="C167" t="n">
-        <v>1.020997375328084</v>
+        <v>0.9922279792746115</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2018/11/26</t>
+          <t>2018/08/21</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>600006</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9773299748110831</v>
+        <v>1.021857923497268</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2018/12/04</t>
+          <t>2019/01/04</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>600006</v>
       </c>
       <c r="C169" t="n">
-        <v>1.01063829787234</v>
+        <v>1</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2018/12/11</t>
+          <t>2018/05/22</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>600006</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9972222222222221</v>
+        <v>0.9842931937172775</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2018/12/28</t>
+          <t>2019/01/09</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>600006</v>
       </c>
       <c r="C171" t="n">
-        <v>1.021857923497268</v>
+        <v>0.9874371859296482</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2019/01/04</t>
+          <t>2018/06/27</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>600006</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9842931937172775</v>
+        <v>1.017937219730942</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2019/01/09</t>
+          <t>2018/05/04</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.02,1.03|1.017,1.018|</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>600006</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9894179894179895</v>
+        <v>1.002433090024331</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2019/01/11</t>
+          <t>2018/07/25</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1.00,1.01</t>
+          <t>1.00,1.01|1.03,1.04|1.0,1.001|</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>600006</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9973614775725593</v>
+        <v>0.9773299748110831</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2019/01/18</t>
+          <t>2018/12/04</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.96,0.97|1.009,1.010|</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>600006</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9980430528375732</v>
+        <v>1.040498442367601</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2018/02/22</t>
+          <t>2018/10/19</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.97,0.98|0.982,0.9835|</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>600006</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>1.020671834625323</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2018/02/26</t>
+          <t>2018/07/06</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.97,0.98|1.011,1.012|</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>600006</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9791271347248578</v>
+        <v>1.013358778625954</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2018/03/13</t>
+          <t>2018/03/15</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.97,0.98|1.024,1.025|</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>600006</v>
       </c>
       <c r="C178" t="n">
-        <v>1.013358778625954</v>
+        <v>0.9701086956521738</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2018/03/15</t>
+          <t>2018/12/26</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.98,0.99|0.980,0.981|</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>600006</v>
       </c>
       <c r="C179" t="n">
-        <v>0.992467043314501</v>
+        <v>0.9977777777777779</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2018/03/16</t>
+          <t>2018/04/24</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>600006</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9897750511247444</v>
+        <v>1.00507614213198</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2018/03/27</t>
+          <t>2018/07/12</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>600006</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9977777777777779</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2018/04/24</t>
+          <t>2018/09/28</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.98,0.99|1.005,1.006|</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>600006</v>
       </c>
       <c r="C182" t="n">
-        <v>1.020642201834862</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2018/05/02</t>
+          <t>2019/01/15</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|0.964,0.965|</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>600006</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>1.020642201834862</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2018/05/07</t>
+          <t>2018/05/02</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|0.984,0.985|</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3668,79 +3668,79 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>600006</v>
       </c>
       <c r="C185" t="n">
-        <v>1.004310344827586</v>
+        <v>0.9923273657289002</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2018/05/21</t>
+          <t>2018/09/04</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|0.994,0.995|</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>600006</v>
       </c>
       <c r="C186" t="n">
-        <v>1.020671834625323</v>
+        <v>1.005208333333333</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2018/07/06</t>
+          <t>2018/08/20</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|1.008,1.009|</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>600006</v>
       </c>
       <c r="C187" t="n">
-        <v>1.00507614213198</v>
+        <v>1.008264462809917</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2018/07/12</t>
+          <t>2019/01/03</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|1.013,1.014|</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>600006</v>
       </c>
       <c r="C188" t="n">
-        <v>1.027638190954774</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2018/07/23</t>
+          <t>2018/02/26</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|0.99,1.00|1.020,1.021|</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -3758,25 +3758,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.0,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>600006</v>
       </c>
       <c r="C190" t="n">
-        <v>1.005208333333333</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2018/08/20</t>
+          <t>2018/11/22</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.0,1.01|1.005,1.006|</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3794,421 +3794,421 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>600006</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9923273657289002</v>
+        <v>0.9897750511247444</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2018/09/04</t>
+          <t>2018/03/27</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>600006</v>
       </c>
       <c r="C193" t="n">
-        <v>0.981958762886598</v>
+        <v>1.021052631578947</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2018/09/14</t>
+          <t>2018/12/12</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>600006</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.027638190954774</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2018/09/28</t>
+          <t>2018/07/23</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>600006</v>
       </c>
       <c r="C195" t="n">
-        <v>1.040498442367601</v>
+        <v>0.9980430528375732</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2018/10/19</t>
+          <t>2018/02/22</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>600006</v>
       </c>
       <c r="C196" t="n">
-        <v>1.010309278350515</v>
+        <v>0.981958762886598</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2018/11/13</t>
+          <t>2018/09/14</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|1.007,1.008|</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>600006</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9974489795918368</v>
+        <v>0.9791271347248578</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2018/11/14</t>
+          <t>2018/03/13</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.00,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>600006</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2018/11/22</t>
+          <t>2018/05/07</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.01,1.02|0.979,0.980|</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>600006</v>
       </c>
       <c r="C199" t="n">
-        <v>1.021052631578947</v>
+        <v>0.992467043314501</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2018/12/12</t>
+          <t>2018/03/16</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.01,1.02|0.989,0.990|</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>600006</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9701086956521738</v>
+        <v>0.9817708333333334</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2018/12/26</t>
+          <t>2019/01/16</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.01,1.02|0.993,0.994|</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>600006</v>
       </c>
       <c r="C201" t="n">
-        <v>1.008264462809917</v>
+        <v>1.004310344827586</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2019/01/03</t>
+          <t>2018/05/21</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.01,1.02|1.052,1.053|</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>600006</v>
       </c>
       <c r="C202" t="n">
-        <v>1.007915567282322</v>
+        <v>0.9974489795918368</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2019/01/08</t>
+          <t>2018/11/14</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.02,1.03|1.008,1.009|</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>600006</v>
       </c>
       <c r="C203" t="n">
-        <v>1.010526315789474</v>
+        <v>1.007915567282322</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2019/01/15</t>
+          <t>2019/01/08</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1.01,1.02</t>
+          <t>1.01,1.02|1.05,1.06|0.983,0.984|</t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>600006</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9817708333333334</v>
+        <v>1.010309278350515</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2019/01/16</t>
+          <t>2018/11/13</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.97,0.98|0.985,0.986|</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>600006</v>
       </c>
       <c r="C205" t="n">
-        <v>1.002247191011236</v>
+        <v>0.9943019943019944</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2018/05/03</t>
+          <t>2018/10/30</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>600006</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9871244635193132</v>
+        <v>0.9922879177377891</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2018/05/11</t>
+          <t>2018/08/07</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.98,0.99|0.994,0.995|</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>600006</v>
       </c>
       <c r="C207" t="n">
-        <v>1.007594936708861</v>
+        <v>0.9783783783783784</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2018/06/26</t>
+          <t>2018/12/24</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.99,1.00|0.977,0.978|</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>600006</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0.9823677581863979</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2018/07/09</t>
+          <t>2018/07/18</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.99,1.00|0.997,0.998|</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>600006</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9823677581863979</v>
+        <v>0.9800498753117208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2018/07/18</t>
+          <t>2018/11/19</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|0.99,1.00|1.007,1.008|</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>600006</v>
       </c>
       <c r="C210" t="n">
-        <v>1.004889975550122</v>
+        <v>1.007594936708861</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2018/07/24</t>
+          <t>2018/06/26</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.0,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>600006</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9922879177377891</v>
+        <v>1</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2018/08/07</t>
+          <t>2018/11/02</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>600006</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9943019943019944</v>
+        <v>1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2018/10/30</t>
+          <t>2018/11/27</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.00,1.01|1.002,1.003|</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>600006</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0.9871244635193132</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2018/11/02</t>
+          <t>2018/05/11</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.00,1.01|1.011,1.012|</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>600006</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9800498753117208</v>
+        <v>1.013368983957219</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2018/11/19</t>
+          <t>2019/01/07</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.01,1.02|0.972,0.973|</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -4219,68 +4219,68 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2018/11/27</t>
+          <t>2018/07/09</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.01,1.02|0.993,0.994|</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>600006</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9845360824742267</v>
+        <v>1.002247191011236</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2018/12/13</t>
+          <t>2018/05/03</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.01,1.02|1.002,1.003|</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>600006</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9783783783783784</v>
+        <v>1.004889975550122</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2018/12/24</t>
+          <t>2018/07/24</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1.02,1.03</t>
+          <t>1.02,1.03|1.01,1.02|1.005,1.006|</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>600006</v>
       </c>
       <c r="C218" t="n">
-        <v>1.013368983957219</v>
+        <v>0.9845360824742267</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2019/01/07</t>
+          <t>2018/12/13</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1.03,1.04</t>
+          <t>1.03,1.04|0.96,0.97|1.014,1.015|</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -4298,7 +4298,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1.03,1.04</t>
+          <t>1.03,1.04|0.99,1.00|1.007,1.008|</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4316,7 +4316,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1.03,1.04</t>
+          <t>1.03,1.04|1.0,1.01|0.984,0.985|</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4334,43 +4334,43 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1.04,1.05</t>
+          <t>1.04,1.05|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>600006</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9798206278026906</v>
+        <v>0.9755501222493889</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2018/06/13</t>
+          <t>2018/06/29</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1.04,1.05</t>
+          <t>1.04,1.05|1.00,1.01|1.0,1.001|</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>600006</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9755501222493889</v>
+        <v>0.9798206278026906</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2018/06/29</t>
+          <t>2018/06/13</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1.04,1.05</t>
+          <t>1.04,1.05|1.01,1.02|0.966,0.967|</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4388,7 +4388,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1.05,1.06</t>
+          <t>1.05,1.06|0.98,0.99|0.997,0.998|</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4406,7 +4406,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1.06,1.07</t>
+          <t>1.06,1.07|1.0,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4424,7 +4424,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1.06,1.07</t>
+          <t>1.06,1.07|1.0,1.01|1.022,1.023|</t>
         </is>
       </c>
       <c r="B227" t="n">

--- a/4.0test3_fp_django4.0AI/test222.xlsx
+++ b/4.0test3_fp_django4.0AI/test222.xlsx
@@ -363,7 +363,7 @@
         <v>600000</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9899359560841721</v>
+        <v>0.989936</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
@@ -381,7 +381,7 @@
         <v>600000</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9913867355727821</v>
+        <v>0.991387</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -399,7 +399,7 @@
         <v>600000</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990157480314961</v>
+        <v>0.999016</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -417,7 +417,7 @@
         <v>600000</v>
       </c>
       <c r="C4" t="n">
-        <v>1.023469387755102</v>
+        <v>1.02347</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -435,7 +435,7 @@
         <v>600000</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9969450101832993</v>
+        <v>0.996945</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -453,7 +453,7 @@
         <v>600000</v>
       </c>
       <c r="C6" t="n">
-        <v>1.001614205004036</v>
+        <v>1.00161</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         <v>600000</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9824390243902439</v>
+        <v>0.982439</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
         <v>600000</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9915433403805497</v>
+        <v>0.991543</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>600000</v>
       </c>
       <c r="C9" t="n">
-        <v>1.020474137931035</v>
+        <v>1.02047</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         <v>600000</v>
       </c>
       <c r="C10" t="n">
-        <v>1.006528835690969</v>
+        <v>1.00653</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         <v>600000</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9878910191725528</v>
+        <v>0.987891</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>600000</v>
       </c>
       <c r="C12" t="n">
-        <v>1.004651162790698</v>
+        <v>1.00465</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>600000</v>
       </c>
       <c r="C13" t="n">
-        <v>1.00197628458498</v>
+        <v>1.00198</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         <v>600000</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9916820702402958</v>
+        <v>0.991682</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         <v>600000</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9841112214498511</v>
+        <v>0.984111</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         <v>600000</v>
       </c>
       <c r="C16" t="n">
-        <v>1.004085801838611</v>
+        <v>1.00409</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         <v>600000</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9878910191725528</v>
+        <v>0.987891</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>600000</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9877425944841676</v>
+        <v>0.987743</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>600000</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989658738366081</v>
+        <v>0.998966</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>600000</v>
       </c>
       <c r="C20" t="n">
-        <v>1.01063829787234</v>
+        <v>1.01064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         <v>600000</v>
       </c>
       <c r="C21" t="n">
-        <v>1.014023732470335</v>
+        <v>1.01402</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>600000</v>
       </c>
       <c r="C23" t="n">
-        <v>1.014678899082569</v>
+        <v>1.01468</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>600000</v>
       </c>
       <c r="C25" t="n">
-        <v>1.000932835820896</v>
+        <v>1.00093</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -806,18 +806,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.99,1.00|1.0,1.001|</t>
+          <t>0.98,0.99|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>600000</v>
       </c>
       <c r="C26" t="n">
-        <v>1.000989119683482</v>
+        <v>1.00081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018/06/13</t>
+          <t>2018/02/28</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         <v>600000</v>
       </c>
       <c r="C27" t="n">
-        <v>1.000809061488673</v>
+        <v>1.00099</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018/02/28</t>
+          <t>2018/06/13</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
         <v>600000</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9962859795728878</v>
+        <v>0.996286</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>600000</v>
       </c>
       <c r="C29" t="n">
-        <v>1.001996007984032</v>
+        <v>1.002</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>600000</v>
       </c>
       <c r="C30" t="n">
-        <v>1.006698564593302</v>
+        <v>1.0067</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>600000</v>
       </c>
       <c r="C31" t="n">
-        <v>1.010837438423645</v>
+        <v>1.01084</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>600000</v>
       </c>
       <c r="C33" t="n">
-        <v>1.016161616161616</v>
+        <v>1.01616</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>600000</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9810246679316889</v>
+        <v>0.981025</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>600000</v>
       </c>
       <c r="C35" t="n">
-        <v>1.015732546705998</v>
+        <v>1.01573</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>600000</v>
       </c>
       <c r="C36" t="n">
-        <v>1.015065913370998</v>
+        <v>1.01507</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         <v>600000</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9973821989528795</v>
+        <v>0.997382</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>600000</v>
       </c>
       <c r="C38" t="n">
-        <v>1.006542056074766</v>
+        <v>1.00654</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>600000</v>
       </c>
       <c r="C39" t="n">
-        <v>1.014828544949027</v>
+        <v>1.01483</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>600000</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9991311902693311</v>
+        <v>0.999131</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>600000</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9971617786187321</v>
+        <v>0.997162</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         <v>600000</v>
       </c>
       <c r="C42" t="n">
-        <v>1.011340206185567</v>
+        <v>1.01134</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>600000</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9922145328719724</v>
+        <v>0.992215</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         <v>600000</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9971936389148738</v>
+        <v>0.997194</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>600000</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9922945205479452</v>
+        <v>0.992295</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>600000</v>
       </c>
       <c r="C46" t="n">
-        <v>1.005797101449275</v>
+        <v>1.0058</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>600000</v>
       </c>
       <c r="C47" t="n">
-        <v>1.027751196172249</v>
+        <v>1.02775</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>600000</v>
       </c>
       <c r="C48" t="n">
-        <v>1.000868809730669</v>
+        <v>1.00087</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>600000</v>
       </c>
       <c r="C49" t="n">
-        <v>1.001970443349754</v>
+        <v>1.00197</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         <v>600000</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9938712972420839</v>
+        <v>0.9938709999999999</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>600000</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9882729211087419</v>
+        <v>0.988273</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         <v>600000</v>
       </c>
       <c r="C52" t="n">
-        <v>1.000931966449208</v>
+        <v>1.00093</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>600000</v>
       </c>
       <c r="C53" t="n">
-        <v>1.014492753623188</v>
+        <v>1.01449</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>600000</v>
       </c>
       <c r="C54" t="n">
-        <v>1.006523765144455</v>
+        <v>1.00652</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>600000</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9973753280839895</v>
+        <v>0.997375</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>600000</v>
       </c>
       <c r="C56" t="n">
-        <v>1.015652173913044</v>
+        <v>1.01565</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         <v>600000</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9879206212251941</v>
+        <v>0.987921</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>600000</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9981238273921201</v>
+        <v>0.998124</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>600000</v>
       </c>
       <c r="C59" t="n">
-        <v>1.003487358326068</v>
+        <v>1.00349</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>600000</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9724857685009488</v>
+        <v>0.972486</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>600000</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9928057553956834</v>
+        <v>0.992806</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>600000</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.986842</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>600000</v>
       </c>
       <c r="C63" t="n">
-        <v>1.023684210526316</v>
+        <v>1.02368</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>600000</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9898430286241922</v>
+        <v>0.989843</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>600000</v>
       </c>
       <c r="C65" t="n">
-        <v>1.004712535344015</v>
+        <v>1.00471</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         <v>600000</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9944903581267217</v>
+        <v>0.99449</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>600000</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9925163704396632</v>
+        <v>0.992516</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>600000</v>
       </c>
       <c r="C68" t="n">
-        <v>0.979296066252588</v>
+        <v>0.9792960000000001</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>600000</v>
       </c>
       <c r="C69" t="n">
-        <v>1.022840119165839</v>
+        <v>1.02284</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>600000</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9555555555555555</v>
+        <v>0.955556</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>600000</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9990654205607477</v>
+        <v>0.999065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>600000</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9990825688073395</v>
+        <v>0.9990830000000001</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         <v>600000</v>
       </c>
       <c r="C74" t="n">
-        <v>1.012008733624454</v>
+        <v>1.01201</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>600000</v>
       </c>
       <c r="C75" t="n">
-        <v>1.008016032064128</v>
+        <v>1.00802</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>600000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.026418786692759</v>
+        <v>1.02642</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>600000</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9980178394449951</v>
+        <v>0.998018</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
         <v>600000</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9882139619220309</v>
+        <v>0.988214</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1760,230 +1760,230 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|0.980,0.981|</t>
+          <t>0.99,1.00|1.00,1.01|0.971,0.972|</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>600000</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9863414634146341</v>
+        <v>0.994571</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2018/06/12</t>
+          <t>2018/07/04</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|0.986,0.987|</t>
+          <t>0.99,1.00|1.00,1.01|0.977,0.978|</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>600000</v>
       </c>
       <c r="C80" t="n">
-        <v>1.008579599618684</v>
+        <v>1.01375</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2018/11/27</t>
+          <t>2018/02/14</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|0.991,0.992|</t>
+          <t>0.99,1.00|1.00,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>600000</v>
       </c>
       <c r="C81" t="n">
-        <v>1.000819672131148</v>
+        <v>0.986341</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2018/03/16</t>
+          <t>2018/06/12</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.005,1.006|</t>
+          <t>0.99,1.00|1.00,1.01|0.981,0.982|</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>600000</v>
       </c>
       <c r="C82" t="n">
-        <v>1.000808407437348</v>
+        <v>1.00081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2018/03/08</t>
+          <t>2018/03/02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.006,1.007|</t>
+          <t>0.99,1.00|1.00,1.01|0.986,0.987|</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>600000</v>
       </c>
       <c r="C83" t="n">
-        <v>1.003012048192771</v>
+        <v>1.00858</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2018/07/26</t>
+          <t>2018/11/27</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.971,0.972|</t>
+          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>600000</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9945711183496199</v>
+        <v>1.01115</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2018/07/04</t>
+          <t>2018/11/16</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.977,0.978|</t>
+          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>600000</v>
       </c>
       <c r="C85" t="n">
-        <v>1.013754045307443</v>
+        <v>1.00082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2018/03/16</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.981,0.982|</t>
+          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>600000</v>
       </c>
       <c r="C86" t="n">
-        <v>1.000812347684809</v>
+        <v>1.00436</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2018/03/02</t>
+          <t>2018/03/28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
+          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>600000</v>
       </c>
       <c r="C87" t="n">
-        <v>1.011152416356877</v>
+        <v>0.991063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2018/11/16</t>
+          <t>2018/08/10</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
+          <t>0.99,1.00|1.00,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>600000</v>
       </c>
       <c r="C88" t="n">
-        <v>1.004359197907585</v>
+        <v>1.00904</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2018/03/28</t>
+          <t>2019/01/10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
+          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>600000</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9910625620655412</v>
+        <v>0.9919289999999999</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2018/08/10</t>
+          <t>2018/03/13</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.997,0.998|</t>
+          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>600000</v>
       </c>
       <c r="C90" t="n">
-        <v>1.009036144578313</v>
+        <v>0.996719</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2019/01/10</t>
+          <t>2018/03/21</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.0,1.001|</t>
+          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>600000</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9889807162534434</v>
+        <v>0.988981</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1994,54 +1994,54 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
+          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>600000</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9919289749798224</v>
+        <v>0.984283</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2018/03/13</t>
+          <t>2018/09/10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
+          <t>0.99,1.00|1.00,1.01|1.005,1.006|</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>600000</v>
       </c>
       <c r="C93" t="n">
-        <v>0.996718621821165</v>
+        <v>1.00081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2018/03/21</t>
+          <t>2018/03/08</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+          <t>0.99,1.00|1.00,1.01|1.006,1.007|</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>600000</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9842829076620825</v>
+        <v>0.992579</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2018/09/10</t>
+          <t>2018/05/22</t>
         </is>
       </c>
     </row>
@@ -2055,11 +2055,11 @@
         <v>600000</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9925788497217068</v>
+        <v>1.00301</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2018/05/22</t>
+          <t>2018/07/26</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
         <v>600000</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9817315329626688</v>
+        <v>0.981732</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>600000</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9895833333333333</v>
+        <v>0.989583</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>600000</v>
       </c>
       <c r="C98" t="n">
-        <v>1.026629935720845</v>
+        <v>1.02663</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>600000</v>
       </c>
       <c r="C99" t="n">
-        <v>1.003012048192771</v>
+        <v>1.00301</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>600000</v>
       </c>
       <c r="C100" t="n">
-        <v>1.003188097768331</v>
+        <v>1.00319</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>600000</v>
       </c>
       <c r="C101" t="n">
-        <v>1.001941747572815</v>
+        <v>1.00194</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>600000</v>
       </c>
       <c r="C102" t="n">
-        <v>0.990909090909091</v>
+        <v>0.990909</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>600000</v>
       </c>
       <c r="C103" t="n">
-        <v>1.017034068136273</v>
+        <v>1.01703</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>600000</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0126953125</v>
+        <v>1.0127</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>600000</v>
       </c>
       <c r="C105" t="n">
-        <v>0.998046875</v>
+        <v>0.998047</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>600000</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9970355731225297</v>
+        <v>0.997036</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         <v>600000</v>
       </c>
       <c r="C107" t="n">
-        <v>1.001846722068329</v>
+        <v>1.00185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>600000</v>
       </c>
       <c r="C108" t="n">
-        <v>0.990125673249551</v>
+        <v>0.990126</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>600000</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9892787524366472</v>
+        <v>0.989279</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>600000</v>
       </c>
       <c r="C110" t="n">
-        <v>1.018645731108931</v>
+        <v>1.01865</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>600000</v>
       </c>
       <c r="C111" t="n">
-        <v>1.008955223880597</v>
+        <v>1.00896</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>600000</v>
       </c>
       <c r="C112" t="n">
-        <v>0.979936642027455</v>
+        <v>0.9799369999999999</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2372,1152 +2372,1152 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.992,0.993|</t>
+          <t>1.00,1.01|0.97,0.98|0.975,0.976|</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>600000</v>
       </c>
       <c r="C113" t="n">
-        <v>1.015720524017467</v>
+        <v>0.9959710000000001</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2018/04/17</t>
+          <t>2018/02/13</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.998,0.999|</t>
+          <t>1.00,1.01|0.97,0.98|1.006,1.007|</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>600000</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9990476190476191</v>
+        <v>0.995676</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2018/11/26</t>
+          <t>2018/07/03</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.006,1.007|</t>
+          <t>1.00,1.01|0.97,0.98|1.012,1.013|</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>600000</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9932170542635659</v>
+        <v>1.00493</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2018/06/11</t>
+          <t>2018/09/06</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|0.999,1.000|</t>
+          <t>1.00,1.01|0.97,0.98|1.014,1.015|</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>600000</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9926769731489016</v>
+        <v>1.00185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2018/03/15</t>
+          <t>2018/11/12</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|0.998,0.999|</t>
+          <t>1.00,1.01|0.98,0.99|0.974,0.975|</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>600000</v>
       </c>
       <c r="C117" t="n">
-        <v>1.004608294930876</v>
+        <v>1.00814</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2018/05/11</t>
+          <t>2018/08/03</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|1.000,1.001|</t>
+          <t>1.00,1.01|0.98,0.99|0.991,0.992|</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>600000</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9983857949959644</v>
+        <v>0.980989</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2018/03/07</t>
+          <t>2018/06/07</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|1.009,1.010|</t>
+          <t>1.00,1.01|0.98,0.99|0.992,0.993|</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>600000</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9940119760479044</v>
+        <v>1.01572</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2018/07/25</t>
+          <t>2018/04/17</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|0.963,0.964|</t>
+          <t>1.00,1.01|0.98,0.99|0.993,0.994|</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>600000</v>
       </c>
       <c r="C120" t="n">
-        <v>1.001994017946162</v>
+        <v>1.00791</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2018/10/15</t>
+          <t>2018/06/14</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|0.975,0.976|</t>
+          <t>1.00,1.01|0.98,0.99|0.994,0.995|</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>600000</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9959709911361805</v>
+        <v>1.00652</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2018/02/13</t>
+          <t>2018/12/12</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.006,1.007|</t>
+          <t>1.00,1.01|0.98,0.99|0.996,0.997|</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>600000</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9956756756756757</v>
+        <v>0.99515</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2018/07/03</t>
+          <t>2018/03/01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.012,1.013|</t>
+          <t>1.00,1.01|0.98,0.99|0.998,0.999|</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>600000</v>
       </c>
       <c r="C123" t="n">
-        <v>1.004930966469428</v>
+        <v>0.999048</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2018/09/06</t>
+          <t>2018/11/26</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.014,1.015|</t>
+          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>600000</v>
       </c>
       <c r="C124" t="n">
-        <v>1.001851851851852</v>
+        <v>1.0249</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2018/11/12</t>
+          <t>2018/09/12</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.974,0.975|</t>
+          <t>1.00,1.01|0.98,0.99|1.001,1.002|</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>600000</v>
       </c>
       <c r="C125" t="n">
-        <v>1.008138351983723</v>
+        <v>0.999071</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2018/08/03</t>
+          <t>2018/11/15</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.991,0.992|</t>
+          <t>1.00,1.01|0.98,0.99|1.006,1.007|</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>600000</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9809885931558936</v>
+        <v>0.993217</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2018/06/07</t>
+          <t>2018/06/11</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.993,0.994|</t>
+          <t>1.00,1.01|0.98,0.99|1.026,1.027|</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>600000</v>
       </c>
       <c r="C127" t="n">
-        <v>1.007905138339921</v>
+        <v>1.00672</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2018/06/14</t>
+          <t>2018/09/26</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.994,0.995|</t>
+          <t>1.00,1.01|0.99,1.00|0.955,0.956|</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>600000</v>
       </c>
       <c r="C128" t="n">
-        <v>1.006523765144455</v>
+        <v>0.99566</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2018/12/12</t>
+          <t>2018/03/27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.996,0.997|</t>
+          <t>1.00,1.01|0.99,1.00|0.956,0.957|</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>600000</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9951495553759095</v>
+        <v>0.963618</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2018/03/01</t>
+          <t>2018/10/10</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
+          <t>1.00,1.01|0.99,1.00|0.988,0.989|</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>600000</v>
       </c>
       <c r="C130" t="n">
-        <v>1.024900398406374</v>
+        <v>1.0037</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2018/09/12</t>
+          <t>2018/05/18</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.001,1.002|</t>
+          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>600000</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9990714948932219</v>
+        <v>0.949609</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2018/11/15</t>
+          <t>2018/04/27</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.026,1.027|</t>
+          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>600000</v>
       </c>
       <c r="C132" t="n">
-        <v>1.006724303554275</v>
+        <v>1.01024</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2018/09/26</t>
+          <t>2018/05/07</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.955,0.956|</t>
+          <t>1.00,1.01|0.99,1.00|0.993,0.994|</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>600000</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9956597222222223</v>
+        <v>0.9840950000000001</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2018/03/27</t>
+          <t>2018/08/14</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.956,0.957|</t>
+          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>600000</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9636184857423796</v>
+        <v>0.992677</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2018/10/10</t>
+          <t>2018/03/15</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.988,0.989|</t>
+          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>600000</v>
       </c>
       <c r="C135" t="n">
-        <v>1.003703703703704</v>
+        <v>0.988743</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2018/05/18</t>
+          <t>2018/05/28</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>600000</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9496090356211989</v>
+        <v>1.00568</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2018/04/27</t>
+          <t>2018/03/05</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>600000</v>
       </c>
       <c r="C137" t="n">
-        <v>1.01024208566108</v>
+        <v>1.00162</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2018/05/07</t>
+          <t>2018/03/09</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.993,0.994|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>600000</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9840954274353877</v>
+        <v>1.00082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2018/08/14</t>
+          <t>2018/03/19</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>600000</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9887429643527204</v>
+        <v>1.0026</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2018/05/28</t>
+          <t>2018/03/29</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>600000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.001615508885299</v>
+        <v>1.01401</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2018/03/09</t>
+          <t>2018/07/27</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>600000</v>
       </c>
       <c r="C141" t="n">
-        <v>1.000819000819001</v>
+        <v>1.00473</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2018/03/19</t>
+          <t>2018/11/28</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>600000</v>
       </c>
       <c r="C142" t="n">
-        <v>1.014014014014014</v>
+        <v>1.00742</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2018/07/27</t>
+          <t>2018/07/17</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>600000</v>
       </c>
       <c r="C143" t="n">
-        <v>1.004725897920605</v>
+        <v>0.985465</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2018/11/28</t>
+          <t>2018/08/29</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>600000</v>
       </c>
       <c r="C144" t="n">
-        <v>1.005681818181818</v>
+        <v>0.996997</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2018/03/05</t>
+          <t>2019/01/09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>600000</v>
       </c>
       <c r="C145" t="n">
-        <v>1.002604166666667</v>
+        <v>1.001</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2018/03/29</t>
+          <t>2019/01/11</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>600000</v>
       </c>
       <c r="C146" t="n">
-        <v>1.007415254237288</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2018/07/17</t>
+          <t>2018/05/10</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|1.020,1.021|</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>600000</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9854651162790697</v>
+        <v>0.993097</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2018/08/29</t>
+          <t>2018/08/09</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.00,1.01|1.00,1.01|0.971,0.972|</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>600000</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9969969969969971</v>
+        <v>0.988909</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2019/01/09</t>
+          <t>2018/11/13</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
+          <t>1.00,1.01|1.00,1.01|0.975,0.976|</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>600000</v>
       </c>
       <c r="C149" t="n">
-        <v>1.000995024875622</v>
+        <v>0.999019</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2019/01/11</t>
+          <t>2018/09/07</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>600000</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0.962745</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2018/05/10</t>
+          <t>2018/06/15</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.020,1.021|</t>
+          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>600000</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9930966469428008</v>
+        <v>1.01336</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2018/08/09</t>
+          <t>2018/09/27</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.001,1.002|</t>
+          <t>1.00,1.01|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>600000</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9990825688073395</v>
+        <v>1.02018</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2018/05/14</t>
+          <t>2018/08/06</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.023,1.024|</t>
+          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>600000</v>
       </c>
       <c r="C153" t="n">
-        <v>1.023880597014925</v>
+        <v>0.983333</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2018/10/16</t>
+          <t>2018/12/13</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.971,0.972|</t>
+          <t>1.00,1.01|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>600000</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9889094269870609</v>
+        <v>1.00526</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2018/11/13</t>
+          <t>2018/07/18</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.975,0.976|</t>
+          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>600000</v>
       </c>
       <c r="C155" t="n">
-        <v>0.999018645731109</v>
+        <v>0.997545</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2018/09/07</t>
+          <t>2018/03/20</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
+          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>600000</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9627450980392158</v>
+        <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2018/06/15</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.986,0.987|</t>
+          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>600000</v>
       </c>
       <c r="C157" t="n">
-        <v>1.013358778625954</v>
+        <v>1.00519</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2018/09/27</t>
+          <t>2018/03/30</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.987,0.988|</t>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>600000</v>
       </c>
       <c r="C158" t="n">
-        <v>1.020181634712412</v>
+        <v>0.994465</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2018/08/06</t>
+          <t>2018/05/21</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>600000</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9833333333333332</v>
+        <v>1.00497</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2018/12/13</t>
+          <t>2019/01/14</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.991,0.992|</t>
+          <t>1.00,1.01|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B160" t="n">
         <v>600000</v>
       </c>
       <c r="C160" t="n">
-        <v>1.005257623554153</v>
+        <v>0.999194</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2018/07/18</t>
+          <t>2018/03/12</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
+          <t>1.00,1.01|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>600000</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9975450081833059</v>
+        <v>1.00461</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2018/03/20</t>
+          <t>2018/05/11</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
+          <t>1.00,1.01|1.00,1.01|0.999,1.000|</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>600000</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>1.00753</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2018/03/06</t>
+          <t>2018/11/29</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>600000</v>
       </c>
       <c r="C163" t="n">
-        <v>1.005194805194805</v>
+        <v>0.998386</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2018/03/30</t>
+          <t>2018/03/07</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>600000</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9944649446494465</v>
+        <v>1.00395</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2018/05/21</t>
+          <t>2019/01/16</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+          <t>1.00,1.01|1.00,1.01|1.001,1.002|</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>600000</v>
       </c>
       <c r="C165" t="n">
-        <v>1.004970178926441</v>
+        <v>0.9990830000000001</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2018/05/14</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.998,0.999|</t>
+          <t>1.00,1.01|1.00,1.01|1.003,1.004|</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>600000</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9991935483870968</v>
+        <v>1.03243</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2018/03/12</t>
+          <t>2018/07/19</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.999,1.000|</t>
+          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>600000</v>
       </c>
       <c r="C167" t="n">
-        <v>1.00752587017874</v>
+        <v>0.98708</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2018/11/29</t>
+          <t>2018/04/02</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
+          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>600000</v>
       </c>
       <c r="C168" t="n">
-        <v>1.003948667324778</v>
+        <v>1.02557</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2019/01/16</t>
+          <t>2019/01/17</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.003,1.004|</t>
+          <t>1.00,1.01|1.00,1.01|1.008,1.009|</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>600000</v>
       </c>
       <c r="C169" t="n">
-        <v>1.032426778242678</v>
+        <v>1.02894</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2018/07/19</t>
+          <t>2018/11/30</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
+          <t>1.00,1.01|1.00,1.01|1.009,1.010|</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>600000</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9870801033591733</v>
+        <v>0.994012</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2018/04/02</t>
+          <t>2018/07/25</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.004,1.005|</t>
+          <t>1.00,1.01|1.00,1.01|1.009,1.010|</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>600000</v>
       </c>
       <c r="C171" t="n">
-        <v>1.025565388397247</v>
+        <v>1.00198</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2019/01/17</t>
+          <t>2019/01/15</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.008,1.009|</t>
+          <t>1.00,1.01|1.00,1.01|1.013,1.014|</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>600000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.028944911297852</v>
+        <v>0.996833</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2018/11/30</t>
+          <t>2018/02/26</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.009,1.010|</t>
+          <t>1.00,1.01|1.00,1.01|1.023,1.024|</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>600000</v>
       </c>
       <c r="C173" t="n">
-        <v>1.001978239366964</v>
+        <v>1.02388</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2019/01/15</t>
+          <t>2018/10/16</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.013,1.014|</t>
+          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>600000</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9968329374505146</v>
+        <v>0.9880949999999999</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2018/02/26</t>
+          <t>2018/10/26</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
+          <t>1.00,1.01|1.00,1.01|1.032,1.033|</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>600000</v>
       </c>
       <c r="C175" t="n">
-        <v>0.988095238095238</v>
+        <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2018/10/26</t>
+          <t>2018/07/24</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.032,1.033|</t>
+          <t>1.00,1.01|1.01,1.02|0.988,0.989|</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>600000</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0.971459</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2018/07/24</t>
+          <t>2018/06/29</t>
         </is>
       </c>
     </row>
@@ -3531,119 +3531,119 @@
         <v>600000</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9714587737843551</v>
+        <v>0.991803</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2018/06/29</t>
+          <t>2018/10/31</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.988,0.989|</t>
+          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>600000</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9918032786885246</v>
+        <v>1.00079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2018/10/31</t>
+          <t>2018/02/23</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
+          <t>1.00,1.01|1.01,1.02|1.000,1.001|</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>600000</v>
       </c>
       <c r="C179" t="n">
-        <v>1.000792393026942</v>
+        <v>0.983761</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2018/02/23</t>
+          <t>2018/04/19</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.0,1.001|</t>
+          <t>1.00,1.01|1.01,1.02|1.003,1.004|</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>600000</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9837606837606838</v>
+        <v>0.9744350000000001</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2018/04/19</t>
+          <t>2018/07/31</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.003,1.004|</t>
+          <t>1.00,1.01|1.01,1.02|1.010,1.011|</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>600000</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9744346116027532</v>
+        <v>0.991549</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2018/07/31</t>
+          <t>2018/06/04</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.010,1.011|</t>
+          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>600000</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9915492957746479</v>
+        <v>0.997996</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2018/06/04</t>
+          <t>2019/01/07</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
+          <t>1.00,1.01|1.02,1.03|0.963,0.964|</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>600000</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9979959919839679</v>
+        <v>1.00199</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2019/01/07</t>
+          <t>2018/10/15</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
         <v>600000</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9915700737618546</v>
+        <v>0.99157</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>600000</v>
       </c>
       <c r="C185" t="n">
-        <v>1.007380073800738</v>
+        <v>1.00738</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>600000</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9970958373668926</v>
+        <v>0.997096</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>600000</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9927797833935018</v>
+        <v>0.99278</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>600000</v>
       </c>
       <c r="C188" t="n">
-        <v>1.006024096385542</v>
+        <v>1.00602</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>600000</v>
       </c>
       <c r="C189" t="n">
-        <v>1.01244019138756</v>
+        <v>1.01244</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>600000</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9719710669077757</v>
+        <v>0.971971</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>600000</v>
       </c>
       <c r="C191" t="n">
-        <v>1.006382978723404</v>
+        <v>1.00638</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>600000</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9980506822612086</v>
+        <v>0.998051</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>600000</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9912875121006777</v>
+        <v>0.9912879999999999</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>600000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9805194805194806</v>
+        <v>0.980519</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>600000</v>
       </c>
       <c r="C195" t="n">
-        <v>1.002739726027397</v>
+        <v>1.00274</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>600000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9920477137176938</v>
+        <v>0.992048</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>600000</v>
       </c>
       <c r="C197" t="n">
-        <v>1.015290519877676</v>
+        <v>1.01529</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>600000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9897260273972603</v>
+        <v>0.989726</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>600000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9897959183673468</v>
+        <v>0.989796</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>600000</v>
       </c>
       <c r="C200" t="n">
-        <v>1.024811218985976</v>
+        <v>1.02481</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>600000</v>
       </c>
       <c r="C201" t="n">
-        <v>1.007182761372706</v>
+        <v>1.00718</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>600000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9825367647058822</v>
+        <v>0.982537</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>600000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9758919961427194</v>
+        <v>0.975892</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>600000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9970443349753694</v>
+        <v>0.997044</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>600000</v>
       </c>
       <c r="C205" t="n">
-        <v>1.023121387283237</v>
+        <v>1.02312</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4046,14 +4046,14 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.0,1.01|0.987,0.988|</t>
+          <t>1.01,1.02|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>600000</v>
       </c>
       <c r="C206" t="n">
-        <v>1.006018916595013</v>
+        <v>1.00602</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         <v>600000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9981566820276498</v>
+        <v>0.998157</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>600000</v>
       </c>
       <c r="C208" t="n">
-        <v>1.003948667324778</v>
+        <v>1.00395</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>600000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9566854990583805</v>
+        <v>0.956685</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>600000</v>
       </c>
       <c r="C210" t="n">
-        <v>1.006616257088847</v>
+        <v>1.00662</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>600000</v>
       </c>
       <c r="C211" t="n">
-        <v>1.002008032128514</v>
+        <v>1.00201</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>600000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9889923793395426</v>
+        <v>0.988992</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         <v>600000</v>
       </c>
       <c r="C214" t="n">
-        <v>1.002111932418163</v>
+        <v>1.00211</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>600000</v>
       </c>
       <c r="C215" t="n">
-        <v>1.009310986964618</v>
+        <v>1.00931</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>600000</v>
       </c>
       <c r="C216" t="n">
-        <v>1.011996572407883</v>
+        <v>1.012</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         <v>600000</v>
       </c>
       <c r="C217" t="n">
-        <v>1.002912621359223</v>
+        <v>1.00291</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>600000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.986653956148713</v>
+        <v>0.986654</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>600000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9964221824686942</v>
+        <v>0.996422</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>600000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9970845481049563</v>
+        <v>0.997085</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4316,14 +4316,14 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|1.0,1.001|</t>
+          <t>1.02,1.03|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>600000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9902818270165209</v>
+        <v>0.990282</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>600000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9923298178331735</v>
+        <v>0.99233</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>600000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9940652818991099</v>
+        <v>0.994065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>600000</v>
       </c>
       <c r="C224" t="n">
-        <v>1.005444646098004</v>
+        <v>1.00544</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>600000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9839924670433146</v>
+        <v>0.983992</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>600000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.996842105263158</v>
+        <v>0.996842</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>600000</v>
       </c>
       <c r="C227" t="n">
-        <v>1.009118541033435</v>
+        <v>1.00912</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>600004</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9898167006109979</v>
+        <v>0.9898169999999999</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         <v>600004</v>
       </c>
       <c r="C229" t="n">
-        <v>0.8987187309334961</v>
+        <v>0.898719</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>600004</v>
       </c>
       <c r="C230" t="n">
-        <v>1.040485829959514</v>
+        <v>1.04049</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>600004</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9765166340508806</v>
+        <v>0.976517</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         <v>600004</v>
       </c>
       <c r="C232" t="n">
-        <v>1.020627802690583</v>
+        <v>1.02063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         <v>600004</v>
       </c>
       <c r="C233" t="n">
-        <v>0.9886706948640483</v>
+        <v>0.988671</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>600004</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9992846924177397</v>
+        <v>0.999285</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>600004</v>
       </c>
       <c r="C235" t="n">
-        <v>0.969795918367347</v>
+        <v>0.969796</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         <v>600004</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9928888888888889</v>
+        <v>0.992889</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>600004</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9974747474747474</v>
+        <v>0.997475</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>600004</v>
       </c>
       <c r="C238" t="n">
-        <v>1.0087890625</v>
+        <v>1.00879</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>600004</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9237097980553478</v>
+        <v>0.92371</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>600004</v>
       </c>
       <c r="C240" t="n">
-        <v>1.007952286282306</v>
+        <v>1.00795</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>600004</v>
       </c>
       <c r="C241" t="n">
-        <v>1.008130081300813</v>
+        <v>1.00813</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4694,14 +4694,14 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0.96,0.97|1.02,1.03|1.0,1.001|</t>
+          <t>0.96,0.97|1.02,1.03|1.000,1.001|</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>600004</v>
       </c>
       <c r="C242" t="n">
-        <v>1.024966261808367</v>
+        <v>1.02497</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>600004</v>
       </c>
       <c r="C243" t="n">
-        <v>1.035960214231063</v>
+        <v>1.03596</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>600004</v>
       </c>
       <c r="C245" t="n">
-        <v>0.9809619238476953</v>
+        <v>0.980962</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>600004</v>
       </c>
       <c r="C246" t="n">
-        <v>1.002006688963211</v>
+        <v>1.00201</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>600004</v>
       </c>
       <c r="C248" t="n">
-        <v>1.010245901639344</v>
+        <v>1.01025</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         <v>600004</v>
       </c>
       <c r="C249" t="n">
-        <v>1.023989033584647</v>
+        <v>1.02399</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>600004</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9990118577075099</v>
+        <v>0.999012</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>600004</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9899451553930531</v>
+        <v>0.989945</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>600004</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9920886075949366</v>
+        <v>0.992089</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>600004</v>
       </c>
       <c r="C253" t="n">
-        <v>1.010196649672251</v>
+        <v>1.0102</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>600004</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9954486345903771</v>
+        <v>0.995449</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>600004</v>
       </c>
       <c r="C255" t="n">
-        <v>1.026792750197006</v>
+        <v>1.02679</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -4946,72 +4946,72 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.0,1.01|0.987,0.988|</t>
+          <t>0.97,0.98|1.00,1.01|0.976,0.977|</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>600004</v>
       </c>
       <c r="C256" t="n">
-        <v>1.012539184952978</v>
+        <v>1.00489</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2018/12/21</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.976,0.977|</t>
+          <t>0.97,0.98|1.00,1.01|0.981,0.982|</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>600004</v>
       </c>
       <c r="C257" t="n">
-        <v>1.004887585532747</v>
+        <v>0.990107</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2018/12/21</t>
+          <t>2018/08/15</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.981,0.982|</t>
+          <t>0.97,0.98|1.00,1.01|0.983,0.984|</t>
         </is>
       </c>
       <c r="B258" t="n">
         <v>600004</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9901065449010654</v>
+        <v>0.983885</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2018/08/15</t>
+          <t>2018/09/05</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.00,1.01|0.983,0.984|</t>
+          <t>0.97,0.98|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>600004</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9838846480067854</v>
+        <v>1.01254</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2018/09/05</t>
+          <t>2019/01/14</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
         <v>600004</v>
       </c>
       <c r="C260" t="n">
-        <v>1.011443102352193</v>
+        <v>1.01144</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>600004</v>
       </c>
       <c r="C261" t="n">
-        <v>1.005741626794258</v>
+        <v>1.00574</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>600004</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9846547314578005</v>
+        <v>0.9846549999999999</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>600004</v>
       </c>
       <c r="C263" t="n">
-        <v>1.021178637200737</v>
+        <v>1.02118</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>600004</v>
       </c>
       <c r="C264" t="n">
-        <v>0.988042794210195</v>
+        <v>0.988043</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>600004</v>
       </c>
       <c r="C265" t="n">
-        <v>1.015333333333333</v>
+        <v>1.01533</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>600004</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9594202898550724</v>
+        <v>0.9594200000000001</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>600004</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9829372333942717</v>
+        <v>0.9829369999999999</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5169,7 +5169,7 @@
         <v>600004</v>
       </c>
       <c r="C268" t="n">
-        <v>1.046178343949045</v>
+        <v>1.04618</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>600004</v>
       </c>
       <c r="C269" t="n">
-        <v>1.008490566037736</v>
+        <v>1.00849</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>600004</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9588477366255145</v>
+        <v>0.958848</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>600004</v>
       </c>
       <c r="C271" t="n">
-        <v>1.032849503437739</v>
+        <v>1.03285</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         <v>600004</v>
       </c>
       <c r="C272" t="n">
-        <v>1.001624695369618</v>
+        <v>1.00162</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>600004</v>
       </c>
       <c r="C273" t="n">
-        <v>1.012257405515833</v>
+        <v>1.01226</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>600004</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9436749769159742</v>
+        <v>0.943675</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>600004</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9707792207792207</v>
+        <v>0.9707789999999999</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5313,7 +5313,7 @@
         <v>600004</v>
       </c>
       <c r="C276" t="n">
-        <v>1.013793103448276</v>
+        <v>1.01379</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5331,7 +5331,7 @@
         <v>600004</v>
       </c>
       <c r="C277" t="n">
-        <v>1.003184713375796</v>
+        <v>1.00318</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>600004</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9993800371977682</v>
+        <v>0.99938</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>600004</v>
       </c>
       <c r="C279" t="n">
-        <v>1.018237082066869</v>
+        <v>1.01824</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>600004</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9869999999999999</v>
+        <v>0.987</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>600004</v>
       </c>
       <c r="C281" t="n">
-        <v>1.007493755203997</v>
+        <v>1.00749</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         <v>600004</v>
       </c>
       <c r="C282" t="n">
-        <v>1.013306038894575</v>
+        <v>1.01331</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>600004</v>
       </c>
       <c r="C283" t="n">
-        <v>1.016423357664234</v>
+        <v>1.01642</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>600004</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9992922859164897</v>
+        <v>0.999292</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>600004</v>
       </c>
       <c r="C285" t="n">
-        <v>0.9987460815047022</v>
+        <v>0.998746</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>600004</v>
       </c>
       <c r="C286" t="n">
-        <v>1.02532928064843</v>
+        <v>1.02533</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>600004</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9797385620915032</v>
+        <v>0.979739</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>600004</v>
       </c>
       <c r="C288" t="n">
-        <v>1.016823687752355</v>
+        <v>1.01682</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         <v>600004</v>
       </c>
       <c r="C289" t="n">
-        <v>1.001897533206831</v>
+        <v>1.0019</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>600004</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9836199836199835</v>
+        <v>0.98362</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>600004</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9730807577268196</v>
+        <v>0.973081</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>600004</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9861932938856015</v>
+        <v>0.986193</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>600004</v>
       </c>
       <c r="C293" t="n">
-        <v>1.042448979591837</v>
+        <v>1.04245</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>600004</v>
       </c>
       <c r="C294" t="n">
-        <v>1.062464183381089</v>
+        <v>1.06246</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>600004</v>
       </c>
       <c r="C295" t="n">
-        <v>1.010214504596527</v>
+        <v>1.01021</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>600004</v>
       </c>
       <c r="C296" t="n">
-        <v>1.006044325050369</v>
+        <v>1.00604</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>600004</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.969697</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>600004</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9868686868686868</v>
+        <v>0.986869</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>600004</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9733155436957972</v>
+        <v>0.973316</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>600004</v>
       </c>
       <c r="C301" t="n">
-        <v>1.04865556978233</v>
+        <v>1.04866</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>600004</v>
       </c>
       <c r="C302" t="n">
-        <v>1.002967359050445</v>
+        <v>1.00297</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>600004</v>
       </c>
       <c r="C303" t="n">
-        <v>0.981199641897941</v>
+        <v>0.9812</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>600004</v>
       </c>
       <c r="C304" t="n">
-        <v>1.001612903225806</v>
+        <v>1.00161</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>600004</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9826147426981919</v>
+        <v>0.982615</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>600004</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9702780441035475</v>
+        <v>0.970278</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>600004</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9906943450250536</v>
+        <v>0.990694</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>600004</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9794091316025066</v>
+        <v>0.979409</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>600004</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9409282700421941</v>
+        <v>0.940928</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
         <v>600004</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9910979228486647</v>
+        <v>0.991098</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
         <v>600004</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9902024820378837</v>
+        <v>0.990202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>600004</v>
       </c>
       <c r="C312" t="n">
-        <v>1.0311004784689</v>
+        <v>1.0311</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>600004</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9715603382013837</v>
+        <v>0.97156</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>600004</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9894540942928038</v>
+        <v>0.9894539999999999</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>600004</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9723796033994335</v>
+        <v>0.97238</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>600004</v>
       </c>
       <c r="C316" t="n">
-        <v>1.008788449466416</v>
+        <v>1.00879</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         <v>600004</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9660404624277457</v>
+        <v>0.96604</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>600004</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9850299401197604</v>
+        <v>0.98503</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>600004</v>
       </c>
       <c r="C319" t="n">
-        <v>1.031662269129288</v>
+        <v>1.03166</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>600004</v>
       </c>
       <c r="C320" t="n">
-        <v>1.008468595624559</v>
+        <v>1.00847</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>600004</v>
       </c>
       <c r="C321" t="n">
-        <v>1.003209242618742</v>
+        <v>1.00321</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>600004</v>
       </c>
       <c r="C322" t="n">
-        <v>0.992296918767507</v>
+        <v>0.992297</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>600004</v>
       </c>
       <c r="C323" t="n">
-        <v>1.00164744645799</v>
+        <v>1.00165</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6170,36 +6170,36 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.011,1.012|</t>
+          <t>0.99,1.00|1.00,1.01|0.969,0.970|</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>600004</v>
       </c>
       <c r="C324" t="n">
-        <v>1.008467400508044</v>
+        <v>1.01749</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2018/09/17</t>
+          <t>2018/12/10</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.969,0.970|</t>
+          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>600004</v>
       </c>
       <c r="C325" t="n">
-        <v>1.017492711370263</v>
+        <v>0.992989</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2018/12/10</t>
+          <t>2018/03/16</t>
         </is>
       </c>
     </row>
@@ -6213,47 +6213,47 @@
         <v>600004</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9929891650732952</v>
+        <v>1.00382</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>2018/03/16</t>
+          <t>2018/05/16</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.988,0.989|</t>
+          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>600004</v>
       </c>
       <c r="C327" t="n">
-        <v>1.00381922342457</v>
+        <v>1.00825</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>2018/05/16</t>
+          <t>2018/05/18</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.991,0.992|</t>
+          <t>0.99,1.00|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>600004</v>
       </c>
       <c r="C328" t="n">
-        <v>1.008248730964467</v>
+        <v>0.981398</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>2018/05/18</t>
+          <t>2018/03/21</t>
         </is>
       </c>
     </row>
@@ -6267,101 +6267,101 @@
         <v>600004</v>
       </c>
       <c r="C329" t="n">
-        <v>0.981398332264272</v>
+        <v>1.02661</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>2018/03/21</t>
+          <t>2018/07/23</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.992,0.993|</t>
+          <t>0.99,1.00|1.00,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>600004</v>
       </c>
       <c r="C330" t="n">
-        <v>1.026610644257703</v>
+        <v>1.01194</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>2018/07/23</t>
+          <t>2018/09/12</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.995,0.996|</t>
+          <t>0.99,1.00|1.00,1.01|0.999,1.000|</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>600004</v>
       </c>
       <c r="C331" t="n">
-        <v>1.011935208866155</v>
+        <v>0.977128</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>2018/09/12</t>
+          <t>2018/05/22</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.999,1.000|</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>600004</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9771283354510801</v>
+        <v>0.9993</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>2018/05/22</t>
+          <t>2018/07/17</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|1.00,1.01|1.008,1.009|</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>600004</v>
       </c>
       <c r="C333" t="n">
-        <v>0.999300209937019</v>
+        <v>1.01199</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>2018/07/17</t>
+          <t>2018/11/29</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.008,1.009|</t>
+          <t>0.99,1.00|1.00,1.01|1.011,1.012|</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>600004</v>
       </c>
       <c r="C334" t="n">
-        <v>1.011988011988012</v>
+        <v>1.00847</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>2018/11/29</t>
+          <t>2018/09/17</t>
         </is>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
         <v>600004</v>
       </c>
       <c r="C335" t="n">
-        <v>1.012795275590551</v>
+        <v>1.0128</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>600004</v>
       </c>
       <c r="C336" t="n">
-        <v>1.011169513797635</v>
+        <v>1.01117</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>600004</v>
       </c>
       <c r="C337" t="n">
-        <v>1.014507772020725</v>
+        <v>1.01451</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>600004</v>
       </c>
       <c r="C338" t="n">
-        <v>1.005123825789923</v>
+        <v>1.00512</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>600004</v>
       </c>
       <c r="C339" t="n">
-        <v>1.045148895292987</v>
+        <v>1.04515</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>600004</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9873754152823919</v>
+        <v>0.987375</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>600004</v>
       </c>
       <c r="C342" t="n">
-        <v>1.018611309949893</v>
+        <v>1.01861</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>600004</v>
       </c>
       <c r="C343" t="n">
-        <v>1.023615635179153</v>
+        <v>1.02362</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>600004</v>
       </c>
       <c r="C344" t="n">
-        <v>1.007981755986317</v>
+        <v>1.00798</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>600004</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9746543778801843</v>
+        <v>0.974654</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>600004</v>
       </c>
       <c r="C346" t="n">
-        <v>1.032475490196078</v>
+        <v>1.03248</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>600004</v>
       </c>
       <c r="C347" t="n">
-        <v>1.031384615384616</v>
+        <v>1.03138</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>600004</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9907508161044615</v>
+        <v>0.990751</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6620,630 +6620,630 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.97,0.98|0.981,0.982|</t>
+          <t>1.00,1.01|0.96,0.97|0.986,0.987|</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>600004</v>
       </c>
       <c r="C349" t="n">
-        <v>1.025350233488993</v>
+        <v>0.996128</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>2018/03/26</t>
+          <t>2018/12/07</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.010,1.011|</t>
+          <t>1.00,1.01|0.96,0.97|1.003,1.004|</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>600004</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9795291709314228</v>
+        <v>0.984677</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>2019/01/11</t>
+          <t>2018/08/30</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|0.996,0.997|</t>
+          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>600004</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9949452401010953</v>
+        <v>0.989152</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>2018/09/14</t>
+          <t>2018/11/21</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|0.986,0.987|</t>
+          <t>1.00,1.01|0.97,0.98|0.981,0.982|</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>600004</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9961277831558566</v>
+        <v>1.02535</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>2018/12/07</t>
+          <t>2018/03/26</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.003,1.004|</t>
+          <t>1.00,1.01|0.97,0.98|0.984,0.985|</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>600004</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9846774193548388</v>
+        <v>1.01202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>2018/08/30</t>
+          <t>2018/04/18</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
+          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>600004</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9891518737672582</v>
+        <v>0.973359</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>2018/11/21</t>
+          <t>2018/12/20</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|0.984,0.985|</t>
+          <t>1.00,1.01|0.97,0.98|1.005,1.006|</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>600004</v>
       </c>
       <c r="C355" t="n">
-        <v>1.012016021361816</v>
+        <v>0.986381</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>2018/04/18</t>
+          <t>2018/12/24</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
+          <t>1.00,1.01|0.97,0.98|1.045,1.046|</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>600004</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9733587059942912</v>
+        <v>1.00094</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>2018/12/20</t>
+          <t>2018/12/17</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.005,1.006|</t>
+          <t>1.00,1.01|0.98,0.99|0.966,0.967|</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>600004</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9863813229571986</v>
+        <v>1.03325</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2018/12/24</t>
+          <t>2018/08/24</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.045,1.046|</t>
+          <t>1.00,1.01|0.98,0.99|0.977,0.978|</t>
         </is>
       </c>
       <c r="B358" t="n">
         <v>600004</v>
       </c>
       <c r="C358" t="n">
-        <v>1.000935453695042</v>
+        <v>0.99619</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2018/12/17</t>
+          <t>2018/03/15</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.966,0.967|</t>
+          <t>1.00,1.01|0.98,0.99|0.984,0.985|</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>600004</v>
       </c>
       <c r="C359" t="n">
-        <v>1.033252230332522</v>
+        <v>0.97438</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>2018/08/24</t>
+          <t>2018/09/04</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.977,0.978|</t>
+          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>600004</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9961904761904762</v>
+        <v>0.991793</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>2018/03/15</t>
+          <t>2018/05/15</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.984,0.985|</t>
+          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>600004</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9743801652892562</v>
+        <v>1.01135</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2018/09/04</t>
+          <t>2018/04/27</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|0.999,1.000|</t>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>600004</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9917929292929294</v>
+        <v>0.979529</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>2018/05/15</t>
+          <t>2019/01/11</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
+          <t>1.00,1.01|0.98,0.99|1.014,1.015|</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>600004</v>
       </c>
       <c r="C363" t="n">
-        <v>1.011348464619493</v>
+        <v>0.971893</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>2018/04/27</t>
+          <t>2018/08/14</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.014,1.015|</t>
+          <t>1.00,1.01|0.98,0.99|1.023,1.024|</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>600004</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9718934911242604</v>
+        <v>0.986312</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>2018/08/14</t>
+          <t>2018/09/26</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.023,1.024|</t>
+          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>600004</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9863123993558777</v>
+        <v>0.978843</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>2018/09/26</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.989,0.990|</t>
+          <t>1.00,1.01|0.99,1.00|0.991,0.992|</t>
         </is>
       </c>
       <c r="B366" t="n">
         <v>600004</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9788425637834475</v>
+        <v>0.898575</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>2018/03/06</t>
+          <t>2018/06/15</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.991,0.992|</t>
+          <t>1.00,1.01|0.99,1.00|0.996,0.997|</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>600004</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8985745614035089</v>
+        <v>0.997441</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>2018/06/15</t>
+          <t>2018/03/20</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.996,0.997|</t>
+          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>600004</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9974408189379398</v>
+        <v>0.9993</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>2018/03/20</t>
+          <t>2018/07/20</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.999,1.000|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>600004</v>
       </c>
       <c r="C369" t="n">
-        <v>0.999300209937019</v>
+        <v>1.0361</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>2018/07/20</t>
+          <t>2018/09/18</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.001,1.002|</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>600004</v>
       </c>
       <c r="C370" t="n">
-        <v>1.036104114189756</v>
+        <v>0.999366</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>2018/09/18</t>
+          <t>2018/05/17</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.001,1.002|</t>
+          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>600004</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9993658845909956</v>
+        <v>0.99056</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>2018/05/17</t>
+          <t>2018/05/21</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.003,1.004|</t>
+          <t>1.00,1.01|0.99,1.00|1.013,1.014|</t>
         </is>
       </c>
       <c r="B372" t="n">
         <v>600004</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9905601006922593</v>
+        <v>0.996602</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2018/05/21</t>
+          <t>2018/09/11</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.013,1.014|</t>
+          <t>1.00,1.01|0.99,1.00|1.035,1.036|</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>600004</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9966015293118098</v>
+        <v>0.986991</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>2018/09/11</t>
+          <t>2018/06/08</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.035,1.036|</t>
+          <t>1.00,1.01|1.00,1.01|0.974,0.975|</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>600004</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9869909502262443</v>
+        <v>0.9766359999999999</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>2018/06/08</t>
+          <t>2018/12/18</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.974,0.975|</t>
+          <t>1.00,1.01|1.00,1.01|1.010,1.011|</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>600004</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9766355140186916</v>
+        <v>0.9990019999999999</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>2018/12/18</t>
+          <t>2018/11/28</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.010,1.011|</t>
+          <t>1.00,1.01|1.00,1.01|1.012,1.013|</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>600004</v>
       </c>
       <c r="C376" t="n">
-        <v>0.999001996007984</v>
+        <v>0.964525</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>2018/11/28</t>
+          <t>2018/11/19</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.012,1.013|</t>
+          <t>1.00,1.01|1.00,1.01|1.018,1.019|</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>600004</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9645254074784276</v>
+        <v>0.991672</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>2018/11/19</t>
+          <t>2018/07/16</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.018,1.019|</t>
+          <t>1.00,1.01|1.01,1.02|0.973,0.974|</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>600004</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9916724496877168</v>
+        <v>1.00805</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>2018/07/16</t>
+          <t>2018/11/27</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.973,0.974|</t>
+          <t>1.00,1.01|1.01,1.02|0.978,0.979|</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>600004</v>
       </c>
       <c r="C379" t="n">
-        <v>1.008048289738431</v>
+        <v>1.01245</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>2018/11/27</t>
+          <t>2018/03/09</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.978,0.979|</t>
+          <t>1.00,1.01|1.01,1.02|0.986,0.987|</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>600004</v>
       </c>
       <c r="C380" t="n">
-        <v>1.012453300124533</v>
+        <v>0.984909</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>2018/03/09</t>
+          <t>2019/01/07</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.986,0.987|</t>
+          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>600004</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9849094567404426</v>
+        <v>1.00773</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>2019/01/07</t>
+          <t>2018/11/16</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
+          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>600004</v>
       </c>
       <c r="C382" t="n">
-        <v>1.007729468599034</v>
+        <v>1.0084</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>2018/11/16</t>
+          <t>2018/07/13</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.995,0.996|</t>
+          <t>1.00,1.01|1.01,1.02|0.996,0.997|</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>600004</v>
       </c>
       <c r="C383" t="n">
-        <v>1.008397480755773</v>
+        <v>0.994945</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>2018/07/13</t>
+          <t>2018/09/14</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
         <v>600004</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9762796504369539</v>
+        <v>0.97628</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>600004</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9893687707641196</v>
+        <v>0.9893690000000001</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>600004</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9941291585127201</v>
+        <v>0.994129</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         <v>600004</v>
       </c>
       <c r="C387" t="n">
-        <v>1.026940346375882</v>
+        <v>1.02694</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
         <v>600004</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9624413145539907</v>
+        <v>0.962441</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>600004</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9869158878504674</v>
+        <v>0.986916</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7365,7 +7365,7 @@
         <v>600004</v>
       </c>
       <c r="C390" t="n">
-        <v>1.008113590263692</v>
+        <v>1.00811</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>600004</v>
       </c>
       <c r="C391" t="n">
-        <v>1.020908435472242</v>
+        <v>1.02091</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7394,14 +7394,14 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|1.0,1.001|</t>
+          <t>1.01,1.02|0.97,0.98|1.000,1.001|</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>600004</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9958720330237359</v>
+        <v>0.995872</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>600004</v>
       </c>
       <c r="C393" t="n">
-        <v>1.009428032683847</v>
+        <v>1.00943</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>600004</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9993434011818779</v>
+        <v>0.999343</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>600004</v>
       </c>
       <c r="C395" t="n">
-        <v>0.995748299319728</v>
+        <v>0.995748</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>600004</v>
       </c>
       <c r="C396" t="n">
-        <v>1.06962663975782</v>
+        <v>1.06963</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>600004</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9748653500897665</v>
+        <v>0.974865</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         <v>600004</v>
       </c>
       <c r="C398" t="n">
-        <v>1.004040404040404</v>
+        <v>1.00404</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>600004</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.985075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>600004</v>
       </c>
       <c r="C400" t="n">
-        <v>1.027134348113832</v>
+        <v>1.02713</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>600004</v>
       </c>
       <c r="C401" t="n">
-        <v>0.9878665318503538</v>
+        <v>0.9878670000000001</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>600004</v>
       </c>
       <c r="C403" t="n">
-        <v>1.050345508390918</v>
+        <v>1.05035</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>600004</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9942693409742119</v>
+        <v>0.994269</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>600004</v>
       </c>
       <c r="C405" t="n">
-        <v>1.005830903790087</v>
+        <v>1.00583</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         <v>600004</v>
       </c>
       <c r="C406" t="n">
-        <v>1.058222676200204</v>
+        <v>1.05822</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
         <v>600004</v>
       </c>
       <c r="C407" t="n">
-        <v>1.025341130604288</v>
+        <v>1.02534</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>600004</v>
       </c>
       <c r="C408" t="n">
-        <v>1.004216444132115</v>
+        <v>1.00422</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>600004</v>
       </c>
       <c r="C409" t="n">
-        <v>0.9887862796833773</v>
+        <v>0.9887860000000001</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>600004</v>
       </c>
       <c r="C410" t="n">
-        <v>0.9933993399339934</v>
+        <v>0.993399</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>600004</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9772447724477245</v>
+        <v>0.977245</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>600004</v>
       </c>
       <c r="C412" t="n">
-        <v>0.974025974025974</v>
+        <v>0.9740259999999999</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>600004</v>
       </c>
       <c r="C413" t="n">
-        <v>1.02081977878985</v>
+        <v>1.02082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>600004</v>
       </c>
       <c r="C414" t="n">
-        <v>1.002503128911139</v>
+        <v>1.0025</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>600004</v>
       </c>
       <c r="C415" t="n">
-        <v>0.9810771470160117</v>
+        <v>0.981077</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>600004</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9886075949367088</v>
+        <v>0.988608</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7851,7 +7851,7 @@
         <v>600004</v>
       </c>
       <c r="C417" t="n">
-        <v>1.035087719298246</v>
+        <v>1.03509</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>600004</v>
       </c>
       <c r="C418" t="n">
-        <v>0.9815465729349736</v>
+        <v>0.9815469999999999</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>600004</v>
       </c>
       <c r="C419" t="n">
-        <v>1.019230769230769</v>
+        <v>1.01923</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>600004</v>
       </c>
       <c r="C420" t="n">
-        <v>1.013824884792627</v>
+        <v>1.01382</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>600004</v>
       </c>
       <c r="C421" t="n">
-        <v>1.007362784471218</v>
+        <v>1.00736</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>600004</v>
       </c>
       <c r="C422" t="n">
-        <v>1.052187260168841</v>
+        <v>1.05219</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>600004</v>
       </c>
       <c r="C423" t="n">
-        <v>1.062218214607755</v>
+        <v>1.06222</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>600004</v>
       </c>
       <c r="C424" t="n">
-        <v>1.009881422924901</v>
+        <v>1.00988</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>600004</v>
       </c>
       <c r="C425" t="n">
-        <v>0.9809004092769441</v>
+        <v>0.9809</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>600004</v>
       </c>
       <c r="C426" t="n">
-        <v>0.9864757358790772</v>
+        <v>0.986476</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8024,14 +8024,14 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.0,1.01|0.979,0.980|</t>
+          <t>1.02,1.03|1.00,1.01|0.979,0.980|</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>600004</v>
       </c>
       <c r="C427" t="n">
-        <v>0.9642160052049448</v>
+        <v>0.964216</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>600004</v>
       </c>
       <c r="C428" t="n">
-        <v>0.9993753903810118</v>
+        <v>0.999375</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>600004</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9745762711864407</v>
+        <v>0.974576</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>600004</v>
       </c>
       <c r="C430" t="n">
-        <v>1.00451030927835</v>
+        <v>1.00451</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>600004</v>
       </c>
       <c r="C431" t="n">
-        <v>1.012674271229404</v>
+        <v>1.01267</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>600004</v>
       </c>
       <c r="C432" t="n">
-        <v>1.041427660930529</v>
+        <v>1.04143</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>600004</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9950142450142451</v>
+        <v>0.995014</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>600004</v>
       </c>
       <c r="C434" t="n">
-        <v>1.014771048744461</v>
+        <v>1.01477</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>600004</v>
       </c>
       <c r="C435" t="n">
-        <v>0.966715976331361</v>
+        <v>0.966716</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8193,7 +8193,7 @@
         <v>600004</v>
       </c>
       <c r="C436" t="n">
-        <v>0.9667440061871616</v>
+        <v>0.966744</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>600004</v>
       </c>
       <c r="C437" t="n">
-        <v>1.010230179028133</v>
+        <v>1.01023</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>600004</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9791169451073984</v>
+        <v>0.979117</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>600004</v>
       </c>
       <c r="C439" t="n">
-        <v>1.014836795252225</v>
+        <v>1.01484</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -8258,14 +8258,14 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.00,1.01|0.984,0.9858|</t>
+          <t>1.03,1.04|1.00,1.01|0.984,0.985|</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>600004</v>
       </c>
       <c r="C440" t="n">
-        <v>1.003139717425432</v>
+        <v>1.00314</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
         <v>600004</v>
       </c>
       <c r="C441" t="n">
-        <v>0.9951377633711507</v>
+        <v>0.995138</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>600004</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9909604519774011</v>
+        <v>0.99096</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>600004</v>
       </c>
       <c r="C443" t="n">
-        <v>0.9774319066147861</v>
+        <v>0.977432</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>600004</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9908675799086757</v>
+        <v>0.990868</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>600004</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9592795614722005</v>
+        <v>0.95928</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>600004</v>
       </c>
       <c r="C446" t="n">
-        <v>0.9963369963369965</v>
+        <v>0.996337</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>600004</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9742647058823528</v>
+        <v>0.974265</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>600004</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9944920440636476</v>
+        <v>0.994492</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
         <v>600004</v>
       </c>
       <c r="C449" t="n">
-        <v>1.056949806949807</v>
+        <v>1.05695</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>600004</v>
       </c>
       <c r="C450" t="n">
-        <v>1.005639097744361</v>
+        <v>1.00564</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -8463,7 +8463,7 @@
         <v>600004</v>
       </c>
       <c r="C451" t="n">
-        <v>1.024070021881838</v>
+        <v>1.02407</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>600004</v>
       </c>
       <c r="C452" t="n">
-        <v>0.9913700107874865</v>
+        <v>0.99137</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>600004</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9839622641509435</v>
+        <v>0.983962</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>600004</v>
       </c>
       <c r="C454" t="n">
-        <v>0.9550084889643464</v>
+        <v>0.955009</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -8535,7 +8535,7 @@
         <v>600006</v>
       </c>
       <c r="C455" t="n">
-        <v>0.9679300291545189</v>
+        <v>0.96793</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>600006</v>
       </c>
       <c r="C456" t="n">
-        <v>1.007575757575758</v>
+        <v>1.00758</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>600006</v>
       </c>
       <c r="C457" t="n">
-        <v>1.004149377593361</v>
+        <v>1.00415</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -8582,14 +8582,14 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>0.95,0.96|1.01,1.02|1.0,1.001|</t>
+          <t>0.95,0.96|1.01,1.02|1.000,1.001|</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>600006</v>
       </c>
       <c r="C458" t="n">
-        <v>1.002631578947369</v>
+        <v>1.00263</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>600006</v>
       </c>
       <c r="C459" t="n">
-        <v>0.9849397590361446</v>
+        <v>0.98494</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8618,14 +8618,14 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>0.96,0.97|0.98,0.99|1.0,1.001|</t>
+          <t>0.96,0.97|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B460" t="n">
         <v>600006</v>
       </c>
       <c r="C460" t="n">
-        <v>0.9948453608247423</v>
+        <v>0.994845</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>600006</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9870967741935482</v>
+        <v>0.987097</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>600006</v>
       </c>
       <c r="C462" t="n">
-        <v>0.9930715935334873</v>
+        <v>0.993072</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>600006</v>
       </c>
       <c r="C463" t="n">
-        <v>1.007772020725389</v>
+        <v>1.00777</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>600006</v>
       </c>
       <c r="C464" t="n">
-        <v>1.012618296529968</v>
+        <v>1.01262</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>600006</v>
       </c>
       <c r="C465" t="n">
-        <v>0.9947916666666666</v>
+        <v>0.994792</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>600006</v>
       </c>
       <c r="C466" t="n">
-        <v>1.013089005235602</v>
+        <v>1.01309</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>600006</v>
       </c>
       <c r="C467" t="n">
-        <v>0.9919786096256684</v>
+        <v>0.9919790000000001</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>600006</v>
       </c>
       <c r="C468" t="n">
-        <v>1.029325513196481</v>
+        <v>1.02933</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8780,14 +8780,14 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>0.97,0.98|0.99,1.00|1.0,1.001|</t>
+          <t>0.97,0.98|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>600006</v>
       </c>
       <c r="C469" t="n">
-        <v>0.9800443458980045</v>
+        <v>0.980044</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -8798,14 +8798,14 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.0,1.01|0.980,0.981|</t>
+          <t>0.97,0.98|1.00,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>600006</v>
       </c>
       <c r="C470" t="n">
-        <v>1.006976744186047</v>
+        <v>1.00698</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -8816,14 +8816,14 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.0,1.01|0.987,0.988|</t>
+          <t>0.97,0.98|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>600006</v>
       </c>
       <c r="C471" t="n">
-        <v>1.005347593582887</v>
+        <v>1.00535</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>600006</v>
       </c>
       <c r="C472" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.997416</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>600006</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9871134020618557</v>
+        <v>0.987113</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>600006</v>
       </c>
       <c r="C474" t="n">
-        <v>1.008403361344538</v>
+        <v>1.0084</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>600006</v>
       </c>
       <c r="C475" t="n">
-        <v>1.015503875968992</v>
+        <v>1.0155</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>600006</v>
       </c>
       <c r="C476" t="n">
-        <v>1.016574585635359</v>
+        <v>1.01657</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>600006</v>
       </c>
       <c r="C477" t="n">
-        <v>1.00250626566416</v>
+        <v>1.00251</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>600006</v>
       </c>
       <c r="C478" t="n">
-        <v>0.9931350114416475</v>
+        <v>0.993135</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -8960,14 +8960,14 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>0.97,0.98|1.06,1.07|1.0,1.001|</t>
+          <t>0.97,0.98|1.06,1.07|1.000,1.001|</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>600006</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9972972972972972</v>
+        <v>0.997297</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>600006</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9938837920489296</v>
+        <v>0.993884</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9050,14 +9050,14 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>0.98,0.99|0.98,0.99|1.0,1.001|</t>
+          <t>0.98,0.99|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>600006</v>
       </c>
       <c r="C484" t="n">
-        <v>1.015801354401806</v>
+        <v>1.0158</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>600006</v>
       </c>
       <c r="C486" t="n">
-        <v>1.020997375328084</v>
+        <v>1.021</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>600006</v>
       </c>
       <c r="C487" t="n">
-        <v>1.052341597796143</v>
+        <v>1.05234</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>600006</v>
       </c>
       <c r="C488" t="n">
-        <v>0.9377431906614787</v>
+        <v>0.937743</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>600006</v>
       </c>
       <c r="C489" t="n">
-        <v>1.024930747922438</v>
+        <v>1.02493</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -9165,7 +9165,7 @@
         <v>600006</v>
       </c>
       <c r="C490" t="n">
-        <v>0.9938144329896909</v>
+        <v>0.993814</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -9176,216 +9176,216 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
+          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>600006</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9627791563275433</v>
+        <v>0.97201</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>2018/08/01</t>
+          <t>2018/07/04</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|0.992,0.993|</t>
+          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>600006</v>
       </c>
       <c r="C492" t="n">
-        <v>1.012787723785166</v>
+        <v>1.01604</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>2018/09/27</t>
+          <t>2019/01/14</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|1.0,1.001|</t>
+          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>600006</v>
       </c>
       <c r="C493" t="n">
-        <v>0.9844444444444443</v>
+        <v>0.993407</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>2018/04/20</t>
+          <t>2018/05/16</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>600006</v>
       </c>
       <c r="C494" t="n">
-        <v>1.015463917525773</v>
+        <v>0.9627790000000001</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>2018/07/11</t>
+          <t>2018/08/01</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.0,1.01|1.020,1.021|</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>600006</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0.997375</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>2018/11/29</t>
+          <t>2018/09/10</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.975,0.976|</t>
+          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>600006</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9720101781170483</v>
+        <v>1.01279</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>2018/07/04</t>
+          <t>2018/09/27</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.984,0.985|</t>
+          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>600006</v>
       </c>
       <c r="C497" t="n">
-        <v>1.016042780748663</v>
+        <v>0.994792</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>2019/01/14</t>
+          <t>2018/08/15</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.987,0.988|</t>
+          <t>0.98,0.99|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>600006</v>
       </c>
       <c r="C498" t="n">
-        <v>0.9934065934065933</v>
+        <v>0.984444</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>2018/05/16</t>
+          <t>2018/04/20</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.992,0.993|</t>
+          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>600006</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9973753280839894</v>
+        <v>0.983834</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>2018/09/10</t>
+          <t>2018/06/07</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|0.994,0.995|</t>
+          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>600006</v>
       </c>
       <c r="C500" t="n">
-        <v>0.9947916666666666</v>
+        <v>1.00532</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>2018/08/15</t>
+          <t>2019/01/10</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.009,1.010|</t>
+          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>600006</v>
       </c>
       <c r="C501" t="n">
-        <v>0.9838337182448036</v>
+        <v>1.04071</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>2018/06/07</t>
+          <t>2018/06/28</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.00,1.01|1.013,1.014|</t>
+          <t>0.98,0.99|1.00,1.01|1.020,1.021|</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>600006</v>
       </c>
       <c r="C502" t="n">
-        <v>1.00531914893617</v>
+        <v>1.01546</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>2019/01/10</t>
+          <t>2018/07/11</t>
         </is>
       </c>
     </row>
@@ -9399,11 +9399,11 @@
         <v>600006</v>
       </c>
       <c r="C503" t="n">
-        <v>1.040712468193384</v>
+        <v>1</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2018/06/28</t>
+          <t>2018/11/29</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>600006</v>
       </c>
       <c r="C504" t="n">
-        <v>1.006198347107438</v>
+        <v>1.0062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>600006</v>
       </c>
       <c r="C505" t="n">
-        <v>1.007874015748031</v>
+        <v>1.00787</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>600006</v>
       </c>
       <c r="C506" t="n">
-        <v>1.005305039787799</v>
+        <v>1.00531</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>600006</v>
       </c>
       <c r="C507" t="n">
-        <v>1.002564102564103</v>
+        <v>1.00256</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -9507,7 +9507,7 @@
         <v>600006</v>
       </c>
       <c r="C509" t="n">
-        <v>1.004347826086957</v>
+        <v>1.00435</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>600006</v>
       </c>
       <c r="C510" t="n">
-        <v>0.9790575916230367</v>
+        <v>0.979058</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9536,14 +9536,14 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>0.98,0.99|1.06,1.07|1.0,1.001|</t>
+          <t>0.98,0.99|1.06,1.07|1.000,1.001|</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>600006</v>
       </c>
       <c r="C511" t="n">
-        <v>0.9770773638968481</v>
+        <v>0.977077</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>600006</v>
       </c>
       <c r="C512" t="n">
-        <v>0.9870466321243524</v>
+        <v>0.987047</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>600006</v>
       </c>
       <c r="C513" t="n">
-        <v>1.013953488372093</v>
+        <v>1.01395</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>600006</v>
       </c>
       <c r="C514" t="n">
-        <v>0.9973821989528796</v>
+        <v>0.997382</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>600006</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9946091644204852</v>
+        <v>0.994609</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>600006</v>
       </c>
       <c r="C516" t="n">
-        <v>1.028497409326425</v>
+        <v>1.0285</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>600006</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9124423963133641</v>
+        <v>0.912442</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9669,7 +9669,7 @@
         <v>600006</v>
       </c>
       <c r="C518" t="n">
-        <v>0.983739837398374</v>
+        <v>0.9837399999999999</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>600006</v>
       </c>
       <c r="C519" t="n">
-        <v>1.009230769230769</v>
+        <v>1.00923</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>600006</v>
       </c>
       <c r="C520" t="n">
-        <v>0.9647302904564315</v>
+        <v>0.96473</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>600006</v>
       </c>
       <c r="C521" t="n">
-        <v>0.9947643979057592</v>
+        <v>0.994764</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>600006</v>
       </c>
       <c r="C523" t="n">
-        <v>1.011061946902655</v>
+        <v>1.01106</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>600006</v>
       </c>
       <c r="C524" t="n">
-        <v>0.9002624671916011</v>
+        <v>0.900262</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>600006</v>
       </c>
       <c r="C525" t="n">
-        <v>0.994579945799458</v>
+        <v>0.99458</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         <v>600006</v>
       </c>
       <c r="C526" t="n">
-        <v>1.010526315789474</v>
+        <v>1.01053</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>600006</v>
       </c>
       <c r="C527" t="n">
-        <v>0.9836512261580381</v>
+        <v>0.9836510000000001</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>600006</v>
       </c>
       <c r="C528" t="n">
-        <v>0.9865642994241842</v>
+        <v>0.986564</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>600006</v>
       </c>
       <c r="C530" t="n">
-        <v>1.015584415584416</v>
+        <v>1.01558</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -9903,7 +9903,7 @@
         <v>600006</v>
       </c>
       <c r="C531" t="n">
-        <v>1.028205128205128</v>
+        <v>1.02821</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>600006</v>
       </c>
       <c r="C532" t="n">
-        <v>0.9961759082217972</v>
+        <v>0.996176</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>600006</v>
       </c>
       <c r="C533" t="n">
-        <v>1.002597402597402</v>
+        <v>1.0026</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -9950,252 +9950,252 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>600006</v>
       </c>
       <c r="C534" t="n">
-        <v>0.9761904761904762</v>
+        <v>1.02067</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>2018/05/24</t>
+          <t>2018/06/25</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.011,1.012|</t>
+          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>600006</v>
       </c>
       <c r="C535" t="n">
-        <v>1.001945525291829</v>
+        <v>1.01114</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>2018/02/28</t>
+          <t>2019/01/02</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.0,1.01|1.012,1.013|</t>
+          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>600006</v>
       </c>
       <c r="C536" t="n">
-        <v>1.002570694087404</v>
+        <v>1</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>2018/08/13</t>
+          <t>2018/06/01</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.967,0.968|</t>
+          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>600006</v>
       </c>
       <c r="C537" t="n">
-        <v>1.020671834625323</v>
+        <v>1</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>2018/06/25</t>
+          <t>2018/03/07</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.970,0.971|</t>
+          <t>0.99,1.00|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>600006</v>
       </c>
       <c r="C538" t="n">
-        <v>1.011142061281337</v>
+        <v>0.98778</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>2019/01/02</t>
+          <t>2018/04/11</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.972,0.973|</t>
+          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>600006</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>1.00194</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2018/06/01</t>
+          <t>2018/03/05</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|0.994,0.995|</t>
+          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>600006</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0.994832</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>2018/03/07</t>
+          <t>2018/08/31</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.0,1.001|</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>600006</v>
       </c>
       <c r="C541" t="n">
-        <v>0.9877800407331975</v>
+        <v>1.00617</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>2018/04/11</t>
+          <t>2018/04/03</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.001,1.002|</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>600006</v>
       </c>
       <c r="C542" t="n">
-        <v>1.001941747572815</v>
+        <v>0.97619</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>2018/03/05</t>
+          <t>2018/05/24</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.002,1.003|</t>
+          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
         </is>
       </c>
       <c r="B543" t="n">
         <v>600006</v>
       </c>
       <c r="C543" t="n">
-        <v>0.9948320413436692</v>
+        <v>0.9927009999999999</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>2018/08/31</t>
+          <t>2018/07/27</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>600006</v>
       </c>
       <c r="C544" t="n">
-        <v>1.006172839506173</v>
+        <v>1.03109</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>2018/04/03</t>
+          <t>2018/09/20</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.004,1.005|</t>
+          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>600006</v>
       </c>
       <c r="C545" t="n">
-        <v>0.9927007299270072</v>
+        <v>1.00522</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>2018/07/27</t>
+          <t>2018/08/22</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.007,1.008|</t>
+          <t>0.99,1.00|1.00,1.01|1.011,1.012|</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>600006</v>
       </c>
       <c r="C546" t="n">
-        <v>1.031088082901555</v>
+        <v>1.00195</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2018/09/20</t>
+          <t>2018/02/28</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.00,1.01|1.010,1.011|</t>
+          <t>0.99,1.00|1.00,1.01|1.012,1.013|</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>600006</v>
       </c>
       <c r="C547" t="n">
-        <v>1.005221932114883</v>
+        <v>1.00257</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>2018/08/22</t>
+          <t>2018/08/13</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
         <v>600006</v>
       </c>
       <c r="C548" t="n">
-        <v>0.9643652561247216</v>
+        <v>0.964365</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>600006</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9922680412371134</v>
+        <v>0.992268</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10238,14 +10238,14 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>0.99,1.00|1.01,1.02|1.0,1.001|</t>
+          <t>0.99,1.00|1.01,1.02|1.000,1.001|</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>600006</v>
       </c>
       <c r="C550" t="n">
-        <v>1.002577319587629</v>
+        <v>1.00258</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>600006</v>
       </c>
       <c r="C551" t="n">
-        <v>1.011764705882353</v>
+        <v>1.01176</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>600006</v>
       </c>
       <c r="C552" t="n">
-        <v>0.9924098671726757</v>
+        <v>0.99241</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>600006</v>
       </c>
       <c r="C553" t="n">
-        <v>0.9974424552429667</v>
+        <v>0.9974420000000001</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>600006</v>
       </c>
       <c r="C555" t="n">
-        <v>1.012953367875648</v>
+        <v>1.01295</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>600006</v>
       </c>
       <c r="C556" t="n">
-        <v>1.001988071570576</v>
+        <v>1.00199</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -10400,1206 +10400,1206 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.964,0.965|</t>
+          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>600006</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0.967419</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>2018/04/18</t>
+          <t>2018/06/20</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.976,0.977|</t>
+          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>600006</v>
       </c>
       <c r="C560" t="n">
-        <v>0.9728506787330317</v>
+        <v>1.01033</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>2018/05/29</t>
+          <t>2018/03/26</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.977,0.978|</t>
+          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>600006</v>
       </c>
       <c r="C561" t="n">
-        <v>0.9765013054830287</v>
+        <v>1.021</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2018/12/07</t>
+          <t>2018/11/26</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|0.986,0.987|</t>
+          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>600006</v>
       </c>
       <c r="C562" t="n">
-        <v>1.002347417840376</v>
+        <v>0.994859</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>2018/06/11</t>
+          <t>2018/06/22</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.0,1.001|</t>
+          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
         </is>
       </c>
       <c r="B563" t="n">
         <v>600006</v>
       </c>
       <c r="C563" t="n">
-        <v>1.031331592689295</v>
+        <v>0.995381</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>2018/11/30</t>
+          <t>2018/05/31</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.98,0.99|1.028,1.029|</t>
+          <t>1.00,1.01|0.97,0.98|1.000,1.001|</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>600006</v>
       </c>
       <c r="C564" t="n">
-        <v>1.015267175572519</v>
+        <v>1.01064</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>2018/11/21</t>
+          <t>2018/12/11</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|0.987,0.988|</t>
+          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>600006</v>
       </c>
       <c r="C565" t="n">
-        <v>1.007894736842105</v>
+        <v>0.9972220000000001</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>2018/09/12</t>
+          <t>2018/12/28</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|0.997,0.998|</t>
+          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>600006</v>
       </c>
       <c r="C566" t="n">
-        <v>0.9877450980392157</v>
+        <v>0.9825</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>2018/07/31</t>
+          <t>2018/07/03</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.001,1.002|</t>
+          <t>1.00,1.01|0.98,0.99|0.964,0.965|</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>600006</v>
       </c>
       <c r="C567" t="n">
-        <v>1.0078125</v>
+        <v>1</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>2018/03/08</t>
+          <t>2018/04/18</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.006,1.007|</t>
+          <t>1.00,1.01|0.98,0.99|0.976,0.977|</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>600006</v>
       </c>
       <c r="C568" t="n">
-        <v>1.009280742459397</v>
+        <v>0.972851</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2018/06/04</t>
+          <t>2018/05/29</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.029,1.030|</t>
+          <t>1.00,1.01|0.98,0.99|0.977,0.978|</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>600006</v>
       </c>
       <c r="C569" t="n">
-        <v>1.022922636103152</v>
+        <v>0.976501</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2018/11/01</t>
+          <t>2018/12/07</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.031,1.032|</t>
+          <t>1.00,1.01|0.98,0.99|0.986,0.987|</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>600006</v>
       </c>
       <c r="C570" t="n">
-        <v>0.9898734177215189</v>
+        <v>1.00235</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>2018/09/26</t>
+          <t>2018/06/11</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>1.0,1.01|0.99,1.00|1.040,1.041|</t>
+          <t>1.00,1.01|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>600006</v>
       </c>
       <c r="C571" t="n">
-        <v>1.069486404833837</v>
+        <v>1.03133</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>2018/10/24</t>
+          <t>2018/11/30</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.0,1.01|0.987,0.988|</t>
+          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>600006</v>
       </c>
       <c r="C572" t="n">
-        <v>0.9803921568627452</v>
+        <v>0.989418</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>2018/04/19</t>
+          <t>2019/01/11</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|0.991,0.992|</t>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>600006</v>
       </c>
       <c r="C573" t="n">
-        <v>1.008179959100205</v>
+        <v>1.00411</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>2018/04/09</t>
+          <t>2018/03/29</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|0.992,0.993|</t>
+          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>600006</v>
       </c>
       <c r="C574" t="n">
-        <v>1.01038961038961</v>
+        <v>0.9973610000000001</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>2018/08/24</t>
+          <t>2019/01/18</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.00,1.01|1.015,1.016|</t>
+          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>600006</v>
       </c>
       <c r="C575" t="n">
-        <v>0.9914163090128755</v>
+        <v>1.00781</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>2018/05/23</t>
+          <t>2018/09/18</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|0.992,0.993|</t>
+          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>600006</v>
       </c>
       <c r="C576" t="n">
-        <v>0.9948849104859335</v>
+        <v>0.9848479999999999</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>2018/08/10</t>
+          <t>2018/05/15</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|0.998,0.999|</t>
+          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>600006</v>
       </c>
       <c r="C577" t="n">
-        <v>0.9961240310077518</v>
+        <v>1.0179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>2018/02/27</t>
+          <t>2018/07/20</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.01,1.02|1.002,1.003|</t>
+          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>600006</v>
       </c>
       <c r="C578" t="n">
-        <v>1.002202643171806</v>
+        <v>1.01527</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>2018/05/08</t>
+          <t>2018/11/21</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>600006</v>
       </c>
       <c r="C579" t="n">
-        <v>1.061624649859944</v>
+        <v>0.966463</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>2018/11/05</t>
+          <t>2018/10/17</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.002,1.003|</t>
+          <t>1.00,1.01|0.99,1.00|0.987,0.988|</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>600006</v>
       </c>
       <c r="C580" t="n">
-        <v>0.9845758354755784</v>
+        <v>1.00789</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>2018/11/28</t>
+          <t>2018/09/12</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>1.0,1.01|1.02,1.03|1.013,1.014|</t>
+          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>600006</v>
       </c>
       <c r="C581" t="n">
-        <v>0.9822784810126581</v>
+        <v>0.987047</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>2018/07/10</t>
+          <t>2018/09/07</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.91,0.92|0.993,0.994|</t>
+          <t>1.00,1.01|0.99,1.00|0.997,0.998|</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>600006</v>
       </c>
       <c r="C582" t="n">
-        <v>0.9674185463659147</v>
+        <v>0.987745</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>2018/06/20</t>
+          <t>2018/07/31</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.93,0.94|0.986,0.987|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>600006</v>
       </c>
       <c r="C583" t="n">
-        <v>1.010330578512397</v>
+        <v>1.00583</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>2018/03/26</t>
+          <t>2018/03/01</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.95,0.96|1.015,1.016|</t>
+          <t>1.00,1.01|0.99,1.00|1.000,1.001|</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>600006</v>
       </c>
       <c r="C584" t="n">
-        <v>1.020997375328084</v>
+        <v>0.984615</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>2018/11/26</t>
+          <t>2018/08/14</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.96,0.97|1.007,1.008|</t>
+          <t>1.00,1.01|0.99,1.00|1.001,1.002|</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>600006</v>
       </c>
       <c r="C585" t="n">
-        <v>0.9948586118251928</v>
+        <v>1.00781</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>2018/06/22</t>
+          <t>2018/03/08</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
         </is>
       </c>
       <c r="B586" t="n">
         <v>600006</v>
       </c>
       <c r="C586" t="n">
-        <v>0.995381062355658</v>
+        <v>1</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>2018/05/31</t>
+          <t>2018/04/04</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.0,1.001|</t>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>600006</v>
       </c>
       <c r="C587" t="n">
-        <v>1.01063829787234</v>
+        <v>0.992248</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>2018/12/11</t>
+          <t>2018/03/06</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.016,1.017|</t>
+          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>600006</v>
       </c>
       <c r="C588" t="n">
-        <v>0.9972222222222221</v>
+        <v>1</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>2018/12/28</t>
+          <t>2018/08/23</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.97,0.98|1.040,1.041|</t>
+          <t>1.00,1.01|0.99,1.00|1.006,1.007|</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>600006</v>
       </c>
       <c r="C589" t="n">
-        <v>0.9825</v>
+        <v>1.00928</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>2018/07/03</t>
+          <t>2018/06/04</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.007,1.008|</t>
+          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>600006</v>
       </c>
       <c r="C590" t="n">
-        <v>0.9894179894179895</v>
+        <v>1.00257</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>2019/01/11</t>
+          <t>2018/08/29</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+          <t>1.00,1.01|0.99,1.00|1.029,1.030|</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>600006</v>
       </c>
       <c r="C591" t="n">
-        <v>1.004106776180698</v>
+        <v>1.02292</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>2018/03/29</t>
+          <t>2018/11/01</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.010,1.011|</t>
+          <t>1.00,1.01|0.99,1.00|1.031,1.032|</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>600006</v>
       </c>
       <c r="C592" t="n">
-        <v>0.9973614775725593</v>
+        <v>0.989873</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>2019/01/18</t>
+          <t>2018/09/26</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.013,1.014|</t>
+          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>600006</v>
       </c>
       <c r="C593" t="n">
-        <v>1.0078125</v>
+        <v>1.01389</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>2018/09/18</t>
+          <t>2018/02/14</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.021,1.022|</t>
+          <t>1.00,1.01|0.99,1.00|1.040,1.041|</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>600006</v>
       </c>
       <c r="C594" t="n">
-        <v>0.9848484848484848</v>
+        <v>1.06949</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>2018/05/15</t>
+          <t>2018/10/24</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.98,0.99|1.028,1.029|</t>
+          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>600006</v>
       </c>
       <c r="C595" t="n">
-        <v>1.017902813299233</v>
+        <v>0.997416</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>2018/07/20</t>
+          <t>2018/09/19</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.984,0.985|</t>
+          <t>1.00,1.01|1.00,1.01|0.983,0.984|</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>600006</v>
       </c>
       <c r="C596" t="n">
-        <v>0.9664634146341464</v>
+        <v>1.0445</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>2018/10/17</t>
+          <t>2018/06/12</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|0.992,0.993|</t>
+          <t>1.00,1.01|1.00,1.01|0.987,0.988|</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>600006</v>
       </c>
       <c r="C597" t="n">
-        <v>0.9870466321243524</v>
+        <v>0.980392</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>2018/09/07</t>
+          <t>2018/04/19</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>600006</v>
       </c>
       <c r="C598" t="n">
-        <v>1.005825242718446</v>
+        <v>1.00205</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>2018/03/01</t>
+          <t>2018/03/30</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.0,1.001|</t>
+          <t>1.00,1.01|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B599" t="n">
         <v>600006</v>
       </c>
       <c r="C599" t="n">
-        <v>0.9846153846153846</v>
+        <v>1.00818</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>2018/08/14</t>
+          <t>2018/04/09</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.002,1.003|</t>
+          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>600006</v>
       </c>
       <c r="C600" t="n">
-        <v>1</v>
+        <v>1.00969</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>2018/04/04</t>
+          <t>2018/03/09</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
+          <t>1.00,1.01|1.00,1.01|0.992,0.993|</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>600006</v>
       </c>
       <c r="C601" t="n">
-        <v>0.9922480620155039</v>
+        <v>1.01039</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>2018/03/06</t>
+          <t>2018/08/24</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.005,1.006|</t>
+          <t>1.00,1.01|1.00,1.01|0.995,0.996|</t>
         </is>
       </c>
       <c r="B602" t="n">
         <v>600006</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>1.0092</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>2018/08/23</t>
+          <t>2018/06/05</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.010,1.011|</t>
+          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
         </is>
       </c>
       <c r="B603" t="n">
         <v>600006</v>
       </c>
       <c r="C603" t="n">
-        <v>1.002570694087404</v>
+        <v>0.994209</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>2018/08/29</t>
+          <t>2018/03/02</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>1.00,1.01|0.99,1.00|1.032,1.033|</t>
+          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>600006</v>
       </c>
       <c r="C604" t="n">
-        <v>1.013888888888889</v>
+        <v>0.992308</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>2018/02/14</t>
+          <t>2018/08/30</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.983,0.984|</t>
+          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>600006</v>
       </c>
       <c r="C605" t="n">
-        <v>1.044496487119438</v>
+        <v>1.01305</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>2018/06/12</t>
+          <t>2018/09/13</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.992,0.993|</t>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>600006</v>
       </c>
       <c r="C606" t="n">
-        <v>1.00968992248062</v>
+        <v>1.01152</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>2018/03/09</t>
+          <t>2018/03/12</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.995,0.996|</t>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>600006</v>
       </c>
       <c r="C607" t="n">
-        <v>1.009195402298851</v>
+        <v>1.02193</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>2018/06/05</t>
+          <t>2018/05/10</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|0.997,0.998|</t>
+          <t>1.00,1.01|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B608" t="n">
         <v>600006</v>
       </c>
       <c r="C608" t="n">
-        <v>1.013054830287206</v>
+        <v>0.986333</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>2018/09/13</t>
+          <t>2018/06/06</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.006,1.007|</t>
+          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>600006</v>
       </c>
       <c r="C609" t="n">
-        <v>0.9959432048681542</v>
+        <v>0.991837</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2018/04/10</t>
+          <t>2018/04/02</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.0,1.01|1.017,1.018|</t>
+          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>600006</v>
       </c>
       <c r="C610" t="n">
-        <v>1.002197802197802</v>
+        <v>0.995943</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2018/05/09</t>
+          <t>2018/04/10</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.981,0.982|</t>
+          <t>1.00,1.01|1.00,1.01|1.015,1.016|</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>600006</v>
       </c>
       <c r="C611" t="n">
-        <v>0.9974160206718345</v>
+        <v>0.991416</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2018/09/19</t>
+          <t>2018/05/23</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.989,0.990|</t>
+          <t>1.00,1.01|1.00,1.01|1.017,1.018|</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>600006</v>
       </c>
       <c r="C612" t="n">
-        <v>1.002044989775051</v>
+        <v>1.0022</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2018/03/30</t>
+          <t>2018/05/09</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.996,0.997|</t>
+          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>600006</v>
       </c>
       <c r="C613" t="n">
-        <v>0.9942084942084943</v>
+        <v>0.997573</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2018/03/02</t>
+          <t>2018/07/26</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|0.997,0.998|</t>
+          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>600006</v>
       </c>
       <c r="C614" t="n">
-        <v>0.9923076923076923</v>
+        <v>0.9772729999999999</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2018/08/30</t>
+          <t>2018/07/13</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
+          <t>1.00,1.01|1.01,1.02|0.992,0.993|</t>
         </is>
       </c>
       <c r="B615" t="n">
         <v>600006</v>
       </c>
       <c r="C615" t="n">
-        <v>1.011516314779271</v>
+        <v>0.994885</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2018/03/12</t>
+          <t>2018/08/10</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
+          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
         </is>
       </c>
       <c r="B616" t="n">
         <v>600006</v>
       </c>
       <c r="C616" t="n">
-        <v>1.021929824561404</v>
+        <v>0.992228</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>2018/05/10</t>
+          <t>2018/08/21</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.0,1.001|</t>
+          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>600006</v>
       </c>
       <c r="C617" t="n">
-        <v>0.9863325740318908</v>
+        <v>1.02186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>2018/06/06</t>
+          <t>2019/01/04</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.006,1.007|</t>
+          <t>1.00,1.01|1.01,1.02|0.998,0.999|</t>
         </is>
       </c>
       <c r="B618" t="n">
         <v>600006</v>
       </c>
       <c r="C618" t="n">
-        <v>0.9918367346938776</v>
+        <v>0.996124</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>2018/04/02</t>
+          <t>2018/02/27</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.00,1.01|1.027,1.028|</t>
+          <t>1.00,1.01|1.01,1.02|1.002,1.003|</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>600006</v>
       </c>
       <c r="C619" t="n">
-        <v>0.9975728155339806</v>
+        <v>1.0022</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>2018/07/26</t>
+          <t>2018/05/08</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.982,0.983|</t>
+          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>600006</v>
       </c>
       <c r="C620" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2018/07/13</t>
+          <t>2018/05/22</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.994,0.995|</t>
+          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
         </is>
       </c>
       <c r="B621" t="n">
         <v>600006</v>
       </c>
       <c r="C621" t="n">
-        <v>0.9922279792746115</v>
+        <v>0.984293</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>2018/08/21</t>
+          <t>2019/01/09</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|0.997,0.998|</t>
+          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>600006</v>
       </c>
       <c r="C622" t="n">
-        <v>1.021857923497268</v>
+        <v>0.987437</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2019/01/04</t>
+          <t>2018/06/27</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.011,1.012|</t>
+          <t>1.00,1.01|1.02,1.03|1.000,1.001|</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>600006</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>1.06162</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>2018/05/22</t>
+          <t>2018/11/05</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.01,1.02|1.021,1.022|</t>
+          <t>1.00,1.01|1.02,1.03|1.002,1.003|</t>
         </is>
       </c>
       <c r="B624" t="n">
         <v>600006</v>
       </c>
       <c r="C624" t="n">
-        <v>0.9842931937172775</v>
+        <v>0.984576</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2019/01/09</t>
+          <t>2018/11/28</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.02,1.03|0.994,0.995|</t>
+          <t>1.00,1.01|1.02,1.03|1.013,1.014|</t>
         </is>
       </c>
       <c r="B625" t="n">
         <v>600006</v>
       </c>
       <c r="C625" t="n">
-        <v>0.9874371859296482</v>
+        <v>1.01794</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2018/06/27</t>
+          <t>2018/05/04</t>
         </is>
       </c>
     </row>
@@ -11613,11 +11613,11 @@
         <v>600006</v>
       </c>
       <c r="C626" t="n">
-        <v>1.017937219730942</v>
+        <v>0.982278</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>2018/05/04</t>
+          <t>2018/07/10</t>
         </is>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
         <v>600006</v>
       </c>
       <c r="C627" t="n">
-        <v>1.002433090024331</v>
+        <v>1.00243</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -11642,14 +11642,14 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>1.00,1.01|1.03,1.04|1.0,1.001|</t>
+          <t>1.00,1.01|1.03,1.04|1.000,1.001|</t>
         </is>
       </c>
       <c r="B628" t="n">
         <v>600006</v>
       </c>
       <c r="C628" t="n">
-        <v>0.9773299748110831</v>
+        <v>0.97733</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>600006</v>
       </c>
       <c r="C629" t="n">
-        <v>1.040498442367601</v>
+        <v>1.0405</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -11678,14 +11678,14 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.97,0.98|0.982,0.9835|</t>
+          <t>1.01,1.02|0.97,0.98|0.982,0.983|</t>
         </is>
       </c>
       <c r="B630" t="n">
         <v>600006</v>
       </c>
       <c r="C630" t="n">
-        <v>1.020671834625323</v>
+        <v>1.02067</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>600006</v>
       </c>
       <c r="C631" t="n">
-        <v>1.013358778625954</v>
+        <v>1.01336</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>600006</v>
       </c>
       <c r="C632" t="n">
-        <v>0.9701086956521738</v>
+        <v>0.970109</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>600006</v>
       </c>
       <c r="C633" t="n">
-        <v>0.9977777777777779</v>
+        <v>0.9977780000000001</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -11750,14 +11750,14 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
+          <t>1.01,1.02|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>600006</v>
       </c>
       <c r="C634" t="n">
-        <v>1.00507614213198</v>
+        <v>1.00508</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -11768,14 +11768,14 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>1.01,1.02|0.98,0.99|1.0,1.001|</t>
+          <t>1.01,1.02|0.98,0.99|1.000,1.001|</t>
         </is>
       </c>
       <c r="B635" t="n">
         <v>600006</v>
       </c>
       <c r="C635" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.969697</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>600006</v>
       </c>
       <c r="C636" t="n">
-        <v>1.010526315789474</v>
+        <v>1.01053</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>600006</v>
       </c>
       <c r="C637" t="n">
-        <v>1.020642201834862</v>
+        <v>1.02064</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>600006</v>
       </c>
       <c r="C638" t="n">
-        <v>1.015317286652079</v>
+        <v>1.01532</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>600006</v>
       </c>
       <c r="C639" t="n">
-        <v>0.9923273657289002</v>
+        <v>0.992327</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>600006</v>
       </c>
       <c r="C640" t="n">
-        <v>1.005208333333333</v>
+        <v>1.00521</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>600006</v>
       </c>
       <c r="C641" t="n">
-        <v>1.008264462809917</v>
+        <v>1.00826</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -11930,126 +11930,126 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.0,1.01|0.980,0.981|</t>
+          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>600006</v>
       </c>
       <c r="C644" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.989775</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>2018/11/22</t>
+          <t>2018/03/27</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.0,1.01|1.005,1.006|</t>
+          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>600006</v>
       </c>
       <c r="C645" t="n">
-        <v>0.9974293059125964</v>
+        <v>1.02105</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>2018/08/27</t>
+          <t>2018/12/12</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.937,0.938|</t>
+          <t>1.01,1.02|1.00,1.01|0.980,0.981|</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>600006</v>
       </c>
       <c r="C646" t="n">
-        <v>0.9897750511247444</v>
+        <v>0.952381</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>2018/03/27</t>
+          <t>2018/11/22</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.976,0.977|</t>
+          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>600006</v>
       </c>
       <c r="C647" t="n">
-        <v>1.021052631578947</v>
+        <v>1.02764</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2018/12/12</t>
+          <t>2018/07/23</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.982,0.983|</t>
+          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>600006</v>
       </c>
       <c r="C648" t="n">
-        <v>1.027638190954774</v>
+        <v>0.998043</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>2018/07/23</t>
+          <t>2018/02/22</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|0.998,0.999|</t>
+          <t>1.01,1.02|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>600006</v>
       </c>
       <c r="C649" t="n">
-        <v>0.9980430528375732</v>
+        <v>0.981959</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>2018/02/22</t>
+          <t>2018/09/14</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>1.01,1.02|1.00,1.01|1.0,1.001|</t>
+          <t>1.01,1.02|1.00,1.01|1.005,1.006|</t>
         </is>
       </c>
       <c r="B650" t="n">
         <v>600006</v>
       </c>
       <c r="C650" t="n">
-        <v>0.981958762886598</v>
+        <v>0.997429</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>2018/09/14</t>
+          <t>2018/08/27</t>
         </is>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
         <v>600006</v>
       </c>
       <c r="C651" t="n">
-        <v>0.9791271347248578</v>
+        <v>0.979127</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>600006</v>
       </c>
       <c r="C653" t="n">
-        <v>0.992467043314501</v>
+        <v>0.992467</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>600006</v>
       </c>
       <c r="C654" t="n">
-        <v>0.9817708333333334</v>
+        <v>0.9817709999999999</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         <v>600006</v>
       </c>
       <c r="C655" t="n">
-        <v>1.004310344827586</v>
+        <v>1.00431</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>600006</v>
       </c>
       <c r="C656" t="n">
-        <v>0.9974489795918368</v>
+        <v>0.997449</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>600006</v>
       </c>
       <c r="C657" t="n">
-        <v>1.007915567282322</v>
+        <v>1.00792</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>600006</v>
       </c>
       <c r="C658" t="n">
-        <v>1.010309278350515</v>
+        <v>1.01031</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>600006</v>
       </c>
       <c r="C659" t="n">
-        <v>0.9943019943019944</v>
+        <v>0.994302</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>600006</v>
       </c>
       <c r="C660" t="n">
-        <v>0.9922879177377891</v>
+        <v>0.9922879999999999</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>600006</v>
       </c>
       <c r="C661" t="n">
-        <v>0.9783783783783784</v>
+        <v>0.978378</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>600006</v>
       </c>
       <c r="C662" t="n">
-        <v>0.9823677581863979</v>
+        <v>0.982368</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>600006</v>
       </c>
       <c r="C663" t="n">
-        <v>0.9800498753117208</v>
+        <v>0.98005</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>600006</v>
       </c>
       <c r="C664" t="n">
-        <v>1.007594936708861</v>
+        <v>1.00759</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.0,1.01|0.994,0.995|</t>
+          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -12319,14 +12319,14 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>2018/11/02</t>
+          <t>2018/11/27</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>1.02,1.03|1.00,1.01|0.952,0.953|</t>
+          <t>1.02,1.03|1.00,1.01|0.994,0.995|</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>2018/11/27</t>
+          <t>2018/11/02</t>
         </is>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
         <v>600006</v>
       </c>
       <c r="C667" t="n">
-        <v>0.9871244635193132</v>
+        <v>0.987124</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>600006</v>
       </c>
       <c r="C668" t="n">
-        <v>1.013368983957219</v>
+        <v>1.01337</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>600006</v>
       </c>
       <c r="C670" t="n">
-        <v>1.002247191011236</v>
+        <v>1.00225</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>600006</v>
       </c>
       <c r="C671" t="n">
-        <v>1.004889975550122</v>
+        <v>1.00489</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>600006</v>
       </c>
       <c r="C672" t="n">
-        <v>0.9845360824742267</v>
+        <v>0.984536</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>600006</v>
       </c>
       <c r="C673" t="n">
-        <v>0.998015873015873</v>
+        <v>0.998016</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         <v>600006</v>
       </c>
       <c r="C674" t="n">
-        <v>0.992462311557789</v>
+        <v>0.992462</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -12488,14 +12488,14 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>1.03,1.04|1.0,1.01|0.984,0.985|</t>
+          <t>1.03,1.04|1.00,1.01|0.984,0.985|</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>600006</v>
       </c>
       <c r="C675" t="n">
-        <v>1.005063291139241</v>
+        <v>1.00506</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>600006</v>
       </c>
       <c r="C676" t="n">
-        <v>0.9755501222493889</v>
+        <v>0.97555</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -12524,14 +12524,14 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>1.04,1.05|1.00,1.01|1.0,1.001|</t>
+          <t>1.04,1.05|1.00,1.01|1.000,1.001|</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>600006</v>
       </c>
       <c r="C677" t="n">
-        <v>0.9798206278026906</v>
+        <v>0.9798210000000001</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>600006</v>
       </c>
       <c r="C678" t="n">
-        <v>0.9910179640718564</v>
+        <v>0.991018</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>600006</v>
       </c>
       <c r="C679" t="n">
-        <v>1.015706806282723</v>
+        <v>1.01571</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -12578,14 +12578,14 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.0,1.01|0.991,0.992|</t>
+          <t>1.06,1.07|1.00,1.01|0.991,0.992|</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>600006</v>
       </c>
       <c r="C680" t="n">
-        <v>0.9858757062146893</v>
+        <v>0.985876</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -12596,14 +12596,14 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>1.06,1.07|1.0,1.01|1.022,1.023|</t>
+          <t>1.06,1.07|1.00,1.01|1.022,1.023|</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>600006</v>
       </c>
       <c r="C681" t="n">
-        <v>0.9762532981530343</v>
+        <v>0.976253</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
